--- a/data/urban spatial data analysis method knowledge points structure_CH_EN.xlsx
+++ b/data/urban spatial data analysis method knowledge points structure_CH_EN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{0EBC4AB7-B6D9-46F4-B765-FC8C23D54A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{12A74698-AE69-4732-A979-A42C494A1AE2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A565CD-DEDF-4B78-B658-DF7C6A5B91F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="660">
   <si>
     <t>单个分类POI数据爬取与地理空间点地图</t>
   </si>
@@ -739,9 +739,6 @@
   </si>
   <si>
     <t>BOW, Decision trees, random forests, cross_val_score, visual perception, image classification-recognizer, server-side deploy of network experiment platform</t>
-  </si>
-  <si>
-    <t>1. Analytical solution to the numerical solution, from machine learning-Scikit-learn to Deep learning-PyTorch</t>
   </si>
   <si>
     <t>Analytical solution to the numerical solution, from machine learning-Scikit-learn to Deep learning-PyTorch</t>
@@ -1959,6 +1956,72 @@
   </si>
   <si>
     <t>百度地图开放平台POI数据批量爬取</t>
+  </si>
+  <si>
+    <t>Object detection(Mask R-CNN) and estimation of human flow; Segmentation(TorchVision.models) and urban spatial content statistics, and associated network structure</t>
+  </si>
+  <si>
+    <t>ONNX(Open Neural Network, Exchange)，netron，Cityscapes dataset, DUC(Dense Upsampling Convolution); image segmentation and urban spatial elements composition, spatial-temporal measurement, green view rate</t>
+  </si>
+  <si>
+    <t>Sentinel-2, (clustering) land classification, VGG16, SegNet remote sensing image semantic segmentation/interpretation, superpixel-segmentation, high-air resolution feature scale definition, and scale depth flow path/feature region extensio</t>
+  </si>
+  <si>
+    <t>COCO dataset</t>
+  </si>
+  <si>
+    <t>FCN-RESNET101 image segmentation</t>
+  </si>
+  <si>
+    <t>Urban spatial content statistics and association network structure</t>
+  </si>
+  <si>
+    <t>ONNX(Open Neural Network,Exchage)</t>
+  </si>
+  <si>
+    <t>netron Network visualization tools</t>
+  </si>
+  <si>
+    <t>Cityscapes dataset</t>
+  </si>
+  <si>
+    <t>Hierarchical Multi-Scale Attention for Semantic Segmentation interpretation</t>
+  </si>
+  <si>
+    <t>Parameter management</t>
+  </si>
+  <si>
+    <t>DUC(Dense Upsampling Convolution) image segmentation</t>
+  </si>
+  <si>
+    <t>Urban spatial elements composition, spatial-temporal measurement, green visibility, equilibrium degree</t>
+  </si>
+  <si>
+    <t>Object/target detection(pedestrian) and estimation of human flow</t>
+  </si>
+  <si>
+    <t>Sentinel-2 remote sensing image</t>
+  </si>
+  <si>
+    <t>Displays a band of Sentinel-2 in Web Mercator mode</t>
+  </si>
+  <si>
+    <t>Unsupervised land classification (clustering method)</t>
+  </si>
+  <si>
+    <t>VGG16 convolutional neural network</t>
+  </si>
+  <si>
+    <t>ImageNet dataset</t>
+  </si>
+  <si>
+    <t>SegNet Semantic segmentation/interpretation of remote sensing images</t>
+  </si>
+  <si>
+    <t>ISPRS dataset dataset</t>
+  </si>
+  <si>
+    <t>superpixels-segmentation, the definition of high-air resolution feature scale and the depth flow path/the extension of the feature region</t>
   </si>
 </sst>
 </file>
@@ -2032,7 +2095,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2388,9 +2458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S177"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:S1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159:XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3037,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>56</v>
@@ -3051,7 +3121,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>57</v>
@@ -3065,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>58</v>
@@ -3079,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>59</v>
@@ -3093,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>60</v>
@@ -3110,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>61</v>
@@ -3127,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>62</v>
@@ -3144,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>63</v>
@@ -3164,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>64</v>
@@ -3184,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>65</v>
@@ -3201,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>66</v>
@@ -3218,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>67</v>
@@ -3235,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>68</v>
@@ -3255,10 +3325,10 @@
         <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4758,7 +4828,7 @@
         <v>20</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>167</v>
@@ -4772,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>168</v>
@@ -4789,7 +4859,7 @@
         <v>20</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>169</v>
@@ -4803,7 +4873,7 @@
         <v>20</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>170</v>
@@ -4817,7 +4887,7 @@
         <v>20</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>171</v>
@@ -4831,7 +4901,7 @@
         <v>20</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>172</v>
@@ -4845,7 +4915,7 @@
         <v>20</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>173</v>
@@ -4859,7 +4929,7 @@
         <v>20</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>174</v>
@@ -4873,7 +4943,7 @@
         <v>20</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>175</v>
@@ -4887,7 +4957,7 @@
         <v>21</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>176</v>
@@ -4901,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>177</v>
@@ -4915,7 +4985,7 @@
         <v>21</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>178</v>
@@ -4929,7 +4999,7 @@
         <v>21</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>179</v>
@@ -4949,7 +5019,7 @@
         <v>21</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>180</v>
@@ -4969,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>181</v>
@@ -4986,7 +5056,7 @@
         <v>21</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>182</v>
@@ -5003,7 +5073,7 @@
         <v>21</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>183</v>
@@ -5020,7 +5090,7 @@
         <v>21</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>184</v>
@@ -5144,10 +5214,10 @@
         <v>23</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -5164,10 +5234,10 @@
         <v>23</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O160">
         <v>1</v>
@@ -5178,10 +5248,10 @@
         <v>23</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M161">
         <v>1</v>
@@ -5192,10 +5262,10 @@
         <v>23</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -5212,10 +5282,10 @@
         <v>24</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M163">
         <v>1</v>
@@ -5226,10 +5296,10 @@
         <v>24</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -5240,10 +5310,10 @@
         <v>24</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O165">
         <v>1</v>
@@ -5254,10 +5324,10 @@
         <v>24</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -5268,10 +5338,10 @@
         <v>24</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -5282,10 +5352,10 @@
         <v>24</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M168">
         <v>1</v>
@@ -5299,10 +5369,10 @@
         <v>24</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -5319,10 +5389,10 @@
         <v>25</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="R170">
         <v>1</v>
@@ -5333,10 +5403,10 @@
         <v>25</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -5350,10 +5420,10 @@
         <v>25</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L172">
         <v>1</v>
@@ -5370,10 +5440,10 @@
         <v>25</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M173">
         <v>1</v>
@@ -5384,10 +5454,10 @@
         <v>25</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O174">
         <v>1</v>
@@ -5398,10 +5468,10 @@
         <v>25</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M175">
         <v>1</v>
@@ -5415,10 +5485,10 @@
         <v>25</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O176">
         <v>1</v>
@@ -5432,10 +5502,10 @@
         <v>25</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L177">
         <v>1</v>
@@ -5449,22 +5519,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C9:XFD9 B9:B10 B4:XFD8 C15:XFD15 E10:XFD14 E16:XFD17 C18:XFD18 E19:XFD34 F1:XFD1 A1:D1 D35:XFD58 D66:G69 C65:G65 D59:G64 H59:XFD69 D70:XFD90 C91:XFD92 D93:XFD96 C106:XFD106 C97:XFD98 D99:XFD105 A178:XFD1048576 A2:XFD3 D107:XFD177 A4:A177">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5691,11 +5761,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78EFAC-3502-4227-867E-32AAAA0ADECB}">
-  <dimension ref="A1:S158"/>
+  <dimension ref="A1:S177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5728,7 +5798,7 @@
         <v>197</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>198</v>
@@ -5767,7 +5837,7 @@
         <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>199</v>
@@ -5826,7 +5896,7 @@
         <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2"/>
       <c r="O3">
@@ -5841,7 +5911,7 @@
         <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="1"/>
       <c r="H4">
@@ -5856,7 +5926,7 @@
         <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1"/>
       <c r="H5">
@@ -5871,7 +5941,7 @@
         <v>217</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="1"/>
       <c r="H6">
@@ -5889,7 +5959,7 @@
         <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="1"/>
       <c r="J7">
@@ -5907,7 +5977,7 @@
         <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="1"/>
       <c r="H8">
@@ -5922,7 +5992,7 @@
         <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1"/>
       <c r="H9">
@@ -5940,7 +6010,7 @@
         <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10">
@@ -5958,7 +6028,7 @@
         <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11">
@@ -5973,7 +6043,7 @@
         <v>219</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12">
@@ -5988,7 +6058,7 @@
         <v>219</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13">
@@ -6003,7 +6073,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14">
@@ -6018,7 +6088,7 @@
         <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -6032,7 +6102,7 @@
         <v>219</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16">
@@ -6064,7 +6134,7 @@
         <v>220</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1"/>
       <c r="H18">
@@ -6079,7 +6149,7 @@
         <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D19" s="1"/>
       <c r="H19">
@@ -6097,7 +6167,7 @@
         <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20">
@@ -6115,7 +6185,7 @@
         <v>221</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" s="1"/>
       <c r="H21">
@@ -6133,7 +6203,7 @@
         <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="1"/>
       <c r="H22">
@@ -6151,7 +6221,7 @@
         <v>221</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23">
@@ -6172,7 +6242,7 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24">
@@ -6199,7 +6269,7 @@
         <v>222</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25">
@@ -6214,7 +6284,7 @@
         <v>222</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26">
@@ -6229,7 +6299,7 @@
         <v>222</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27">
@@ -6244,7 +6314,7 @@
         <v>222</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28">
@@ -6259,7 +6329,7 @@
         <v>222</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29">
@@ -6274,7 +6344,7 @@
         <v>222</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30">
@@ -6289,7 +6359,7 @@
         <v>222</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31">
@@ -6304,7 +6374,7 @@
         <v>222</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32">
@@ -6331,7 +6401,7 @@
         <v>222</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33">
@@ -6355,7 +6425,7 @@
         <v>223</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -6369,7 +6439,7 @@
         <v>223</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -6383,7 +6453,7 @@
         <v>223</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -6397,7 +6467,7 @@
         <v>223</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -6411,7 +6481,7 @@
         <v>223</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -6428,7 +6498,7 @@
         <v>223</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -6445,7 +6515,7 @@
         <v>223</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -6462,7 +6532,7 @@
         <v>223</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -6482,7 +6552,7 @@
         <v>223</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -6502,7 +6572,7 @@
         <v>223</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -6519,7 +6589,7 @@
         <v>223</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -6536,7 +6606,7 @@
         <v>223</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -6553,7 +6623,7 @@
         <v>223</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6573,7 +6643,7 @@
         <v>223</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -6593,7 +6663,7 @@
         <v>224</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -6619,7 +6689,7 @@
         <v>224</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -6639,7 +6709,7 @@
         <v>224</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -6656,7 +6726,7 @@
         <v>224</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -6673,7 +6743,7 @@
         <v>224</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -6696,7 +6766,7 @@
         <v>224</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -6713,7 +6783,7 @@
         <v>224</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6730,7 +6800,7 @@
         <v>224</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -6750,7 +6820,7 @@
         <v>224</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -6773,7 +6843,7 @@
         <v>224</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -6799,7 +6869,7 @@
         <v>225</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -6816,7 +6886,7 @@
         <v>225</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -6833,7 +6903,7 @@
         <v>225</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -6850,7 +6920,7 @@
         <v>225</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -6867,7 +6937,7 @@
         <v>225</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -6884,7 +6954,7 @@
         <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -6901,7 +6971,7 @@
         <v>225</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -6918,7 +6988,7 @@
         <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -6935,7 +7005,7 @@
         <v>225</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -6952,7 +7022,7 @@
         <v>225</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -6969,7 +7039,7 @@
         <v>225</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -6986,7 +7056,7 @@
         <v>225</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -7003,7 +7073,7 @@
         <v>226</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -7020,7 +7090,7 @@
         <v>226</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -7040,7 +7110,7 @@
         <v>226</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -7060,7 +7130,7 @@
         <v>226</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -7089,7 +7159,7 @@
         <v>226</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -7106,7 +7176,7 @@
         <v>227</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7123,7 +7193,7 @@
         <v>227</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -7143,7 +7213,7 @@
         <v>227</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -7160,7 +7230,7 @@
         <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -7174,7 +7244,7 @@
         <v>228</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -7191,7 +7261,7 @@
         <v>228</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7208,7 +7278,7 @@
         <v>228</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7225,7 +7295,7 @@
         <v>228</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7245,7 +7315,7 @@
         <v>228</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -7268,7 +7338,7 @@
         <v>229</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7288,7 +7358,7 @@
         <v>229</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -7308,7 +7378,7 @@
         <v>229</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -7328,7 +7398,7 @@
         <v>229</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7345,7 +7415,7 @@
         <v>229</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -7368,7 +7438,7 @@
         <v>230</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -7382,7 +7452,7 @@
         <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -7396,7 +7466,7 @@
         <v>230</v>
       </c>
       <c r="C91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -7410,7 +7480,7 @@
         <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -7424,7 +7494,7 @@
         <v>230</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -7438,7 +7508,7 @@
         <v>230</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -7452,7 +7522,7 @@
         <v>230</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -7466,7 +7536,7 @@
         <v>231</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -7480,7 +7550,7 @@
         <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -7494,7 +7564,7 @@
         <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7508,7 +7578,7 @@
         <v>231</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -7522,7 +7592,7 @@
         <v>231</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -7539,7 +7609,7 @@
         <v>231</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -7553,7 +7623,7 @@
         <v>231</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -7576,7 +7646,7 @@
         <v>232</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -7590,7 +7660,7 @@
         <v>232</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -7604,7 +7674,7 @@
         <v>232</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -7618,7 +7688,7 @@
         <v>232</v>
       </c>
       <c r="C106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -7632,7 +7702,7 @@
         <v>232</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -7646,7 +7716,7 @@
         <v>232</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -7663,7 +7733,7 @@
         <v>232</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -7689,7 +7759,7 @@
         <v>232</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7712,7 +7782,7 @@
         <v>232</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -7726,7 +7796,7 @@
         <v>232</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -7746,7 +7816,7 @@
         <v>232</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -7766,7 +7836,7 @@
         <v>233</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -7783,7 +7853,7 @@
         <v>233</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -7797,7 +7867,7 @@
         <v>233</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -7811,7 +7881,7 @@
         <v>233</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -7848,7 +7918,7 @@
         <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P119">
         <v>1</v>
@@ -7862,7 +7932,7 @@
         <v>234</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -7876,7 +7946,7 @@
         <v>234</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -7893,7 +7963,7 @@
         <v>234</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -7910,7 +7980,7 @@
         <v>234</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7924,7 +7994,7 @@
         <v>234</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7941,7 +8011,7 @@
         <v>234</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7955,7 +8025,7 @@
         <v>234</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7969,7 +8039,7 @@
         <v>235</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -7983,7 +8053,7 @@
         <v>235</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -7997,7 +8067,7 @@
         <v>235</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -8011,7 +8081,7 @@
         <v>235</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -8025,7 +8095,7 @@
         <v>235</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -8042,7 +8112,7 @@
         <v>235</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K132">
         <v>1</v>
@@ -8059,7 +8129,7 @@
         <v>235</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -8076,7 +8146,7 @@
         <v>236</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -8090,7 +8160,7 @@
         <v>236</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -8107,7 +8177,7 @@
         <v>236</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -8121,7 +8191,7 @@
         <v>236</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -8132,10 +8202,10 @@
         <v>20</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -8149,7 +8219,7 @@
         <v>236</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -8163,7 +8233,7 @@
         <v>236</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -8177,7 +8247,7 @@
         <v>236</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8191,7 +8261,7 @@
         <v>236</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8202,10 +8272,10 @@
         <v>21</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -8216,38 +8286,38 @@
         <v>21</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>21</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>21</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -8259,15 +8329,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>21</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -8279,15 +8349,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>21</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -8296,15 +8366,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>21</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -8313,15 +8383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>21</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -8330,15 +8400,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>21</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -8347,43 +8417,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>22</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>22</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>22</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -8395,15 +8465,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>22</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -8412,12 +8482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>22</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>190</v>
@@ -8426,245 +8496,583 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>22</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>22</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A159">
+        <v>23</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="S159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A160">
+        <v>23</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A161">
+        <v>23</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A162">
+        <v>23</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="S162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A163">
+        <v>24</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A164">
+        <v>24</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A165">
+        <v>24</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A166">
+        <v>24</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A167">
+        <v>24</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A168">
+        <v>24</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A169">
+        <v>24</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="S169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A170">
+        <v>25</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A171">
+        <v>25</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A172">
+        <v>25</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A173">
+        <v>25</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A174">
+        <v>25</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A175">
+        <v>25</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A176">
+        <v>25</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="86" x14ac:dyDescent="0.5">
+      <c r="A177">
+        <v>25</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C9:S9 B9:B10 B4:S8 C15:S15 E10:S14 E16:S17 C18:S18 E19:S34 F1:S1 A1:D1 D35:S58 D66:G69 C65:G65 D59:G64 H59:S69 D70:S90 C91:S92 D93:S96 C106:S106 C97:S98 D99:S105 D107:S158 A4:A158 A2:S3">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="6" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C90">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="D159:XFD177 A159:A177">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" xr:uid="{D7CCC41C-DBDF-43D0-9F99-95B67E134227}"/>
-    <hyperlink ref="B8" r:id="rId2" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" display="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" xr:uid="{75343980-5489-48DD-90EE-563179FA3EFB}"/>
-    <hyperlink ref="B4:B7" r:id="rId3" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" xr:uid="{D723813B-C4F4-4D94-B975-F26327C19A53}"/>
-    <hyperlink ref="B9:B10" r:id="rId4" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" display="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" xr:uid="{CE94AAF2-F735-4E75-B365-BEB7B85C852A}"/>
-    <hyperlink ref="B11" r:id="rId5" location="/./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" xr:uid="{588D1973-8121-481E-9155-52D08B3FB1E6}"/>
-    <hyperlink ref="B12:B16" r:id="rId6" location="/./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" xr:uid="{56F2F583-9564-4743-B9B9-9A3FC637F137}"/>
-    <hyperlink ref="B17" r:id="rId7" location="/./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{3BDCBCA3-52F1-4352-A385-63635135EE40}"/>
-    <hyperlink ref="B18:B19" r:id="rId8" location="/./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{CE631BF0-E2E6-400F-8E74-114711143587}"/>
-    <hyperlink ref="B20" r:id="rId9" location="/./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" xr:uid="{A31AB420-DA75-41D0-9F10-BB9177A7EB30}"/>
-    <hyperlink ref="B21:B23" r:id="rId10" location="/./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" xr:uid="{9B73574D-1EE7-417D-AD95-70F50B76F683}"/>
-    <hyperlink ref="B25" r:id="rId11" location="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" display="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" xr:uid="{C184DAE4-65B2-45FA-9825-E9FBD3C318D2}"/>
-    <hyperlink ref="B24" r:id="rId12" location="/./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" xr:uid="{ABBB0B91-64D2-4326-806F-A974C12E692E}"/>
-    <hyperlink ref="C33" r:id="rId13" location="/./notebook_code/correlation?id=_132-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_132-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" xr:uid="{F380446D-B92D-4728-90CC-6C9F35DA0253}"/>
-    <hyperlink ref="B26:B33" r:id="rId14" location="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" display="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" xr:uid="{059350B9-F198-4E51-8A21-CEB204BB62C8}"/>
-    <hyperlink ref="B34" r:id="rId15" location="/./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" xr:uid="{A548E265-F0B9-4FDE-9D9D-80717EB35738}"/>
-    <hyperlink ref="C34" r:id="rId16" location="/./notebook_code/regression?id=_111-%e5%8f%8d%e5%87%bd%e6%95%b0%ef%bc%88inverse-function%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_111-%e5%8f%8d%e5%87%bd%e6%95%b0%ef%bc%88inverse-function%ef%bc%89" xr:uid="{DB4E53B6-305A-4161-A58D-8CAF6EAB199D}"/>
-    <hyperlink ref="C35" r:id="rId17" location="/./notebook_code/regression?id=_112-%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0%e4%b8%8e%e8%87%aa%e7%84%b6%e5%af%b9%e6%95%b0%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_112-%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0%e4%b8%8e%e8%87%aa%e7%84%b6%e5%af%b9%e6%95%b0%e5%87%bd%e6%95%b0" xr:uid="{9E016303-AB9D-4119-A98A-A63F1944E26B}"/>
-    <hyperlink ref="C36" r:id="rId18" location="/./notebook_code/regression?id=_113-%e5%be%ae%e5%88%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_113-%e5%be%ae%e5%88%86" xr:uid="{39777E53-5D91-4BB6-8C8C-D03E7B1B0F63}"/>
-    <hyperlink ref="C37" r:id="rId19" location="/./notebook_code/regression?id=_114-%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_114-%e7%9f%a9%e9%98%b5" xr:uid="{25BFC592-9FE2-4AE3-A72F-A21BFA8BA8BF}"/>
-    <hyperlink ref="C38" r:id="rId20" location="/./notebook_code/regression?id=_12-%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_12-%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" xr:uid="{F4EA2CD4-A7CB-4563-BFEA-8A8F0702C203}"/>
-    <hyperlink ref="C39" r:id="rId21" location="/./notebook_code/regression?id=_122%e6%b1%82%e8%a7%a3%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_122%e6%b1%82%e8%a7%a3%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" xr:uid="{4B211511-36FD-4F9B-A891-8D87C0AEFD9A}"/>
-    <hyperlink ref="C40" r:id="rId22" location="/./notebook_code/regression?id=_123-%e7%a1%ae%e8%ae%a4%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_123-%e7%a1%ae%e8%ae%a4%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" xr:uid="{A11DE560-B211-4E66-8AA9-146A870F14E5}"/>
-    <hyperlink ref="C41" r:id="rId23" location="/./notebook_code/regression?id=_124-%e5%9b%9e%e5%bd%92%e7%b3%bb%e6%95%b0%e7%9a%84%e6%a3%80%e9%aa%8c%ef%bc%88%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%89-f%e5%88%86%e5%b8%83%e4%b8%8e%e6%96%b9%e5%b7%ae%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_124-%e5%9b%9e%e5%bd%92%e7%b3%bb%e6%95%b0%e7%9a%84%e6%a3%80%e9%aa%8c%ef%bc%88%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%89-f%e5%88%86%e5%b8%83%e4%b8%8e%e6%96%b9%e5%b7%ae%e5%88%86%e6%9e%90" xr:uid="{A8347B2D-A1A3-4A24-B6C1-DF596D1C961A}"/>
-    <hyperlink ref="C42" r:id="rId24" location="/./notebook_code/regression?id=_125-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%e4%bc%b0%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_125-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%e4%bc%b0%e8%ae%a1" xr:uid="{9A5F2195-6661-4ED7-A97A-C84451CEE397}"/>
-    <hyperlink ref="C43" r:id="rId25" location="/./notebook_code/regression?id=_13-%e5%a4%9a%e5%85%83%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_13-%e5%a4%9a%e5%85%83%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" xr:uid="{EF902572-48C4-4FE4-BB92-EF0972BD60C3}"/>
-    <hyperlink ref="C44" r:id="rId26" location="/./notebook_code/regression?id=_133-%e6%b1%82%e8%a7%a3%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_133-%e6%b1%82%e8%a7%a3%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" xr:uid="{A85FAC22-4347-49A6-AA40-BDE80E90D387}"/>
-    <hyperlink ref="C45" r:id="rId27" location="/./notebook_code/regression?id=_134-%e7%a1%ae%e8%ae%a4%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_134-%e7%a1%ae%e8%ae%a4%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" xr:uid="{9EA480B7-A3C6-4F31-AAB2-D6E469AC6378}"/>
-    <hyperlink ref="C46" r:id="rId28" location="/./notebook_code/regression?id=_135-%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_135-%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c" xr:uid="{7FD94A2A-F817-49E0-BE33-6FFED888E060}"/>
-    <hyperlink ref="C47" r:id="rId29" location="/./notebook_code/regression?id=_136-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg-begin-inline-katexa_1-x_1-a_2-x_2-ldots-a_n-x_nbend-inline-katex-%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_136-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg-begin-inline-katexa_1-x_1-a_2-x_2-ldots-a_n-x_nbend-inline-katex-%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" xr:uid="{9E2BC493-84BB-4AC6-9481-090D84996026}"/>
-    <hyperlink ref="B35:B47" r:id="rId30" location="/./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" xr:uid="{C2E9EF5F-A00F-44D2-B06E-8AB3CFFCBBD7}"/>
-    <hyperlink ref="B48" r:id="rId31" location="/./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" xr:uid="{A23F42A5-8C6C-49DD-8B10-2A0E3E1F91E9}"/>
-    <hyperlink ref="C48" r:id="rId32" location="/./notebook_code/regression_publicHeath_grad?id=_11-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_11-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" xr:uid="{0389FED0-0A16-4E66-89F4-ACF44CD41F4B}"/>
-    <hyperlink ref="C49" r:id="rId33" location="/./notebook_code/regression_publicHeath_grad?id=_12-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84k-%e8%bf%91%e9%82%bb%e6%a8%a1%e5%9e%8b%ef%bc%88k-nearest-neighbors-algorithmk-nn%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_12-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84k-%e8%bf%91%e9%82%bb%e6%a8%a1%e5%9e%8b%ef%bc%88k-nearest-neighbors-algorithmk-nn%ef%bc%89" xr:uid="{6E4E2DDF-94F8-4808-8E2B-E6E50AA28C7A}"/>
-    <hyperlink ref="C50" r:id="rId34" location="/./notebook_code/regression_publicHeath_grad?id=_122-%e5%b9%b3%e5%9d%87%e7%bb%9d%e5%af%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-absolute-error-mae%ef%bc%89%e5%92%8c%e5%9d%87%e6%96%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-squared-error%ef%bc%8cmse%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_122-%e5%b9%b3%e5%9d%87%e7%bb%9d%e5%af%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-absolute-error-mae%ef%bc%89%e5%92%8c%e5%9d%87%e6%96%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-squared-error%ef%bc%8cmse%ef%bc%89" xr:uid="{B83AFE6E-0AEB-4611-9CCF-F42407E5EAF6}"/>
-    <hyperlink ref="C51" r:id="rId35" location="/./notebook_code/regression_publicHeath_grad?id=_123-%e7%89%b9%e5%be%81%e5%80%bc%e7%9a%84%e6%af%94%e4%be%8b%e7%bc%a9%e6%94%be%e6%a0%87%e5%87%86%e5%8c%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_123-%e7%89%b9%e5%be%81%e5%80%bc%e7%9a%84%e6%af%94%e4%be%8b%e7%bc%a9%e6%94%be%e6%a0%87%e5%87%86%e5%8c%96" xr:uid="{EFECF272-1DB6-4A01-8F7D-99EEC943BC29}"/>
-    <hyperlink ref="C52" r:id="rId36" location="/./notebook_code/regression_publicHeath_grad?id=_13-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_13-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" xr:uid="{FA002E12-7FC0-4EAF-83DB-C8C48D1F7CE9}"/>
-    <hyperlink ref="C53" r:id="rId37" location="/./notebook_code/regression_publicHeath_grad?id=_132-%e5%a4%9a%e9%a1%b9%e5%bc%8f%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_132-%e5%a4%9a%e9%a1%b9%e5%bc%8f%e5%9b%9e%e5%bd%92" xr:uid="{9E5799BE-B5A5-4651-9174-26A19154CF41}"/>
-    <hyperlink ref="C54" r:id="rId38" location="/./notebook_code/regression_publicHeath_grad?id=_134-%e6%ad%a3%e5%88%99%e5%8c%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_134-%e6%ad%a3%e5%88%99%e5%8c%96" xr:uid="{7A4B154A-89DD-4D5D-ABDC-F44399BF5DDB}"/>
-    <hyperlink ref="C55" r:id="rId39" location="/./notebook_code/regression_publicHeath_grad?id=_14-%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95%ef%bc%88gradient-descent%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_14-%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95%ef%bc%88gradient-descent%ef%bc%89" xr:uid="{DD57192B-7975-4964-9C5B-9FBB721876B9}"/>
-    <hyperlink ref="C56" r:id="rId40" location="/./notebook_code/regression_publicHeath_grad?id=_141-%e6%a2%af%e5%ba%a6%ef%bc%8c%e5%be%ae%e5%88%86%e4%b8%8e%e5%af%bc%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_141-%e6%a2%af%e5%ba%a6%ef%bc%8c%e5%be%ae%e5%88%86%e4%b8%8e%e5%af%bc%e6%95%b0" xr:uid="{DB174DCA-A046-4C53-B1AF-0A2AC80FFF52}"/>
-    <hyperlink ref="C57" r:id="rId41" location="/./notebook_code/regression_publicHeath_grad?id=_143-%e7%94%a8sklearn%e5%ba%93%e6%8f%90%e4%be%9b%e7%9a%84sgdregressor%ef%bc%88-stochastic-gradient-descent%ef%bc%89%e9%9a%8f%e6%9c%ba%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%96%b9%e6%b3%95%e8%ae%ad%e7%bb%83%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_143-%e7%94%a8sklearn%e5%ba%93%e6%8f%90%e4%be%9b%e7%9a%84sgdregressor%ef%bc%88-stochastic-gradient-descent%ef%bc%89%e9%9a%8f%e6%9c%ba%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%96%b9%e6%b3%95%e8%ae%ad%e7%bb%83%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae" xr:uid="{BE97C28A-AC68-47C7-A7BD-36D34F72D23C}"/>
-    <hyperlink ref="B49:B57" r:id="rId42" location="/./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" xr:uid="{0CA1F6DF-8549-4539-9EB6-158A05218BD3}"/>
-    <hyperlink ref="B58" r:id="rId43" location="/./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{6135D462-D88A-432E-9175-2EAE677A23A8}"/>
-    <hyperlink ref="C58" r:id="rId44" location="/./notebook_code/linear_algebra?id=_11-%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_11-%e7%9f%a9%e9%98%b5" xr:uid="{FFEC343D-CCD0-4E90-94E5-ED593341AC46}"/>
-    <hyperlink ref="C59" r:id="rId45" location="/./notebook_code/linear_algebra?id=_111-%e7%9f%a9%e9%98%b5%e7%9a%84%e8%bf%90%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_111-%e7%9f%a9%e9%98%b5%e7%9a%84%e8%bf%90%e7%ae%97" xr:uid="{BE122DC6-AB92-43EC-A919-1D97674738A4}"/>
-    <hyperlink ref="C60" r:id="rId46" location="/./notebook_code/linear_algebra?id=_112-%e7%89%b9%e6%ae%8a%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_112-%e7%89%b9%e6%ae%8a%e7%9f%a9%e9%98%b5" xr:uid="{70135257-1149-41C7-B2FF-1DB63CCE80E7}"/>
-    <hyperlink ref="C62" r:id="rId47" location="/./notebook_code/linear_algebra?id=_122-%e7%ba%bf%e6%80%a7%e6%97%a0%e5%85%b3" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_122-%e7%ba%bf%e6%80%a7%e6%97%a0%e5%85%b3" xr:uid="{FE5C764D-8010-4627-8259-B951B97ED611}"/>
-    <hyperlink ref="C64" r:id="rId48" location="/./notebook_code/linear_algebra?id=_123-%e7%bb%b4%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_123-%e7%bb%b4%e6%95%b0" xr:uid="{81582EE2-FD45-4334-8AC0-DDB9C06ED88C}"/>
-    <hyperlink ref="C61" r:id="rId49" location="/./notebook_code/linear_algebra?id=_121-%e5%90%91%e9%87%8f%e6%a6%82%e5%bf%b5%ef%bc%8c%e8%a1%a8%e8%be%be%e5%8f%8a%e8%bf%90%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_121-%e5%90%91%e9%87%8f%e6%a6%82%e5%bf%b5%ef%bc%8c%e8%a1%a8%e8%be%be%e5%8f%8a%e8%bf%90%e7%ae%97" xr:uid="{F83BEB17-5FB7-4038-95BB-CEE6BE751011}"/>
-    <hyperlink ref="C66" r:id="rId50" location="/./notebook_code/linear_algebra?id=_131-%e5%ae%9a%e4%b9%89%ef%bc%8c%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%e7%9a%84%e7%9f%a9%e9%98%b5%e8%ae%a1%e7%ae%97%e6%96%b9%e6%b3%95%ef%bc%8c%e5%83%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_131-%e5%ae%9a%e4%b9%89%ef%bc%8c%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%e7%9a%84%e7%9f%a9%e9%98%b5%e8%ae%a1%e7%ae%97%e6%96%b9%e6%b3%95%ef%bc%8c%e5%83%8f" xr:uid="{873679D4-E512-4156-9FB5-7FBAB68C5D53}"/>
-    <hyperlink ref="C67" r:id="rId51" location="/./notebook_code/linear_algebra?id=_132-%e7%89%b9%e6%ae%8a%e7%9a%84%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%ef%bc%88%e7%ba%bf%e6%80%a7%e5%8f%98%e6%8d%a2%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_132-%e7%89%b9%e6%ae%8a%e7%9a%84%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%ef%bc%88%e7%ba%bf%e6%80%a7%e5%8f%98%e6%8d%a2%ef%bc%89" xr:uid="{BA16C13C-D151-401B-8676-1F5BC08E083D}"/>
-    <hyperlink ref="C68" r:id="rId52" location="/./notebook_code/linear_algebra?id=_133-%e7%a7%a9" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_133-%e7%a7%a9" xr:uid="{FD20F0F7-5787-492A-A4A8-5C245003B54A}"/>
-    <hyperlink ref="C69" r:id="rId53" location="/./notebook_code/linear_algebra?id=_14-%e7%89%b9%e5%be%81%e5%80%bc%e5%92%8c%e7%89%b9%e5%be%81%e5%90%91%e9%87%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_14-%e7%89%b9%e5%be%81%e5%80%bc%e5%92%8c%e7%89%b9%e5%be%81%e5%90%91%e9%87%8f" xr:uid="{C334FBA2-610B-40ED-9469-9E129C5A714D}"/>
-    <hyperlink ref="B59:B69" r:id="rId54" location="/./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{E0AB603A-44B3-425C-889C-392F93FED90F}"/>
-    <hyperlink ref="B70" r:id="rId55" location="/./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" xr:uid="{0F94FACC-B497-485B-8CAA-703DDCA2007A}"/>
-    <hyperlink ref="C70" r:id="rId56" location="/./notebook_code/landsat_pca?id=_11-landsat%e5%9c%b0%e7%90%86%e4%bf%a1%e6%81%af%e8%af%bb%e5%8f%96%ef%bc%8c%e8%a3%81%e5%88%87%ef%bc%8c%e8%9e%8d%e5%90%88%ef%bc%8c%e6%89%93%e5%8d%b0%e6%98%be%e7%a4%ba" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_11-landsat%e5%9c%b0%e7%90%86%e4%bf%a1%e6%81%af%e8%af%bb%e5%8f%96%ef%bc%8c%e8%a3%81%e5%88%87%ef%bc%8c%e8%9e%8d%e5%90%88%ef%bc%8c%e6%89%93%e5%8d%b0%e6%98%be%e7%a4%ba" xr:uid="{07A11722-CC59-4B2B-8A8D-BB0E41E655B0}"/>
-    <hyperlink ref="C71" r:id="rId57" location="/./notebook_code/landsat_pca?id=_12-%e4%b8%bb%e6%88%90%e5%88%86%e5%88%86%e6%9e%90%ef%bc%88principal-components%ef%bc%8cpca%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_12-%e4%b8%bb%e6%88%90%e5%88%86%e5%88%86%e6%9e%90%ef%bc%88principal-components%ef%bc%8cpca%ef%bc%89" xr:uid="{1C370319-0611-477B-AA23-0374BF9D11C5}"/>
-    <hyperlink ref="C72" r:id="rId58" location="/./notebook_code/landsat_pca?id=_122-%e4%b8%89%e7%bb%b4%e5%ba%a6pca" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_122-%e4%b8%89%e7%bb%b4%e5%ba%a6pca" xr:uid="{40926408-1840-4CDF-829D-D97326CC0C83}"/>
-    <hyperlink ref="C73" r:id="rId59" location="/./notebook_code/landsat_pca?id=_123-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e6%b3%a2%e6%ae%b5%e7%9a%84pca%e9%99%8d%e7%bb%b4%e4%b8%8ergb%e6%98%be%e7%a4%ba" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_123-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e6%b3%a2%e6%ae%b5%e7%9a%84pca%e9%99%8d%e7%bb%b4%e4%b8%8ergb%e6%98%be%e7%a4%ba" xr:uid="{D8ECCF8C-D25E-439B-843A-53E9A091F5B1}"/>
-    <hyperlink ref="C74" r:id="rId60" location="/./notebook_code/landsat_pca?id=_13-%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%88digital-elevation%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_13-%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%88digital-elevation%ef%bc%89" xr:uid="{1DE3CEEA-02B6-4B16-A7FD-BEBEF57990EA}"/>
-    <hyperlink ref="B71:B74" r:id="rId61" location="/./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" xr:uid="{20942B0D-79D7-41C3-BFB1-5A69E62BCEB4}"/>
-    <hyperlink ref="B75" r:id="rId62" location="/./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" xr:uid="{AB6896D8-1648-4651-9A59-BFA58707360A}"/>
-    <hyperlink ref="C75" r:id="rId63" location="/./notebook_code/interpretation_GUI?id=_11-%e5%bd%b1%e5%83%8f%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_11-%e5%bd%b1%e5%83%8f%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{7B123801-1222-4B99-A8B3-1AA51198CB37}"/>
-    <hyperlink ref="C76" r:id="rId64" location="/./notebook_code/interpretation_GUI?id=_12-%e8%ae%a1%e7%ae%97ndvi%ef%bc%8c%e4%ba%a4%e4%ba%92%e5%9b%be%e5%83%8f%e4%b8%8e%e8%a7%a3%e8%af%91" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_12-%e8%ae%a1%e7%ae%97ndvi%ef%bc%8c%e4%ba%a4%e4%ba%92%e5%9b%be%e5%83%8f%e4%b8%8e%e8%a7%a3%e8%af%91" xr:uid="{0BDD5D3B-FA91-4DE3-9307-02D48F68BB9E}"/>
-    <hyperlink ref="C77" r:id="rId65" location="/./notebook_code/interpretation_GUI?id=_13-%e9%87%87%e6%a0%b7%e4%ba%a4%e4%ba%92%e6%93%8d%e4%bd%9c%e5%b9%b3%e5%8f%b0%e7%9a%84%e5%bb%ba%e7%ab%8b%ef%bc%8c%e4%b8%8e%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_13-%e9%87%87%e6%a0%b7%e4%ba%a4%e4%ba%92%e6%93%8d%e4%bd%9c%e5%b9%b3%e5%8f%b0%e7%9a%84%e5%bb%ba%e7%ab%8b%ef%bc%8c%e4%b8%8e%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" xr:uid="{5FB18194-5837-4807-8794-A89A80EAE841}"/>
-    <hyperlink ref="C78" r:id="rId66" location="/./notebook_code/interpretation_GUI?id=_132-%e5%88%86%e7%b1%bb%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_132-%e5%88%86%e7%b1%bb%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" xr:uid="{5973A622-8138-4B18-90DB-2F4E9A7F07AC}"/>
-    <hyperlink ref="B76:B78" r:id="rId67" location="/./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" xr:uid="{DD741292-5744-475A-A133-D8288CBAAF2A}"/>
-    <hyperlink ref="B79" r:id="rId68" location="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" display="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" xr:uid="{0475A257-3024-4563-AC3D-CC71C0FA2D13}"/>
-    <hyperlink ref="C79" r:id="rId69" location="/./notebook_code/lidarData?id=_11-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86%ef%bc%88las%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_11-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86%ef%bc%88las%ef%bc%89" xr:uid="{D3BA6D7F-580C-43B2-8A08-0A0124B270E0}"/>
-    <hyperlink ref="C80" r:id="rId70" location="/./notebook_code/lidarData?id=_112-%e5%bb%ba%e7%ab%8bdsmdigital-surface-model%ef%bc%8c%e4%b8%8e%e5%88%86%e7%b1%bb%e6%a0%85%e6%a0%bc" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_112-%e5%bb%ba%e7%ab%8bdsmdigital-surface-model%ef%bc%8c%e4%b8%8e%e5%88%86%e7%b1%bb%e6%a0%85%e6%a0%bc" xr:uid="{0B208F29-636E-4805-AF00-2662EB49FE1A}"/>
-    <hyperlink ref="C81" r:id="rId71" location="/./notebook_code/lidarData?id=_113%e6%89%b9%e9%87%8f%e5%a4%84%e7%90%86las%e7%82%b9%e4%ba%91%e5%8d%95%e5%85%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_113%e6%89%b9%e9%87%8f%e5%a4%84%e7%90%86las%e7%82%b9%e4%ba%91%e5%8d%95%e5%85%83" xr:uid="{B3D37AD5-855F-462E-8D15-5F2F5116F9E7}"/>
-    <hyperlink ref="C82" r:id="rId72" location="/./notebook_code/lidarData?id=_12-%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_12-%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96" xr:uid="{CC2E2758-9109-497C-8F04-F9F6355406BF}"/>
-    <hyperlink ref="C83" r:id="rId73" location="/./notebook_code/lidarData?id=_124-%e5%8c%ba%e5%9f%9f%e7%bb%9f%e8%ae%a1%ef%bc%8c%e8%ae%a1%e7%ae%97%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_124-%e5%8c%ba%e5%9f%9f%e7%bb%9f%e8%ae%a1%ef%bc%8c%e8%ae%a1%e7%ae%97%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6" xr:uid="{165695A7-D81B-47D5-841C-1B8A8D2347E3}"/>
-    <hyperlink ref="B80:B83" r:id="rId74" location="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" display="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" xr:uid="{9D09292B-F3EA-4070-9DF9-DC934DE85150}"/>
-    <hyperlink ref="B84" r:id="rId75" location="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" display="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" xr:uid="{9336FC07-843B-4FB1-87E3-57E56D1886AA}"/>
-    <hyperlink ref="C84" r:id="rId76" location="/./notebook_code/convolution_SIR?id=_11-%e5%8d%b7%e7%a7%af" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_11-%e5%8d%b7%e7%a7%af" xr:uid="{E429CBAA-D52C-48A1-ABBC-77020652624F}"/>
-    <hyperlink ref="C85" r:id="rId77" location="/./notebook_code/convolution_SIR?id=_111-%e4%b8%80%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e6%9b%b2%e7%ba%bf%e5%88%86%e5%89%b2" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_111-%e4%b8%80%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e6%9b%b2%e7%ba%bf%e5%88%86%e5%89%b2" xr:uid="{3D33385D-951F-4870-B07D-B445CC865056}"/>
-    <hyperlink ref="C86" r:id="rId78" location="/./notebook_code/convolution_SIR?id=_112-%e4%ba%8c%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_112-%e4%ba%8c%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96" xr:uid="{95249C3E-B1F9-422F-83DA-2C807FA47A2B}"/>
-    <hyperlink ref="C87" r:id="rId79" location="/./notebook_code/convolution_SIR?id=_12-sir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_12-sir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" xr:uid="{7C15D2EA-DAB6-492A-A905-9FFD8A14F167}"/>
-    <hyperlink ref="C88" r:id="rId80" location="/./notebook_code/convolution_SIR?id=_13-%e5%8d%b7%e7%a7%af%e6%89%a9%e6%95%a3%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e6%ad%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_13-%e5%8d%b7%e7%a7%af%e6%89%a9%e6%95%a3%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e6%ad%a5" xr:uid="{AF2CB802-80D2-4C87-A33E-0D9624F18CF1}"/>
-    <hyperlink ref="B85:B88" r:id="rId81" location="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" display="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" xr:uid="{8378C2CF-4E67-4964-ADE3-09E2FEC2BECA}"/>
-    <hyperlink ref="B89" r:id="rId82" location="/./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{495C7603-6458-4A78-8400-D1D79DF5DCCB}"/>
-    <hyperlink ref="C89" r:id="rId83" location="/./notebook_code/calculus_code_graph?id=_11-%e5%af%bc%e6%95%b0%ef%bc%88derivative%ef%bc%89%e4%b8%8e%e5%be%ae%e5%88%86%ef%bc%88differentiation%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_11-%e5%af%bc%e6%95%b0%ef%bc%88derivative%ef%bc%89%e4%b8%8e%e5%be%ae%e5%88%86%ef%bc%88differentiation%ef%bc%89" xr:uid="{B6FFA688-DD4D-49B5-AFE8-C442F523C536}"/>
-    <hyperlink ref="C93" r:id="rId84" location="/./notebook_code/calculus_code_graph?id=_12-%e7%a7%af%e5%88%86integrate" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_12-%e7%a7%af%e5%88%86integrate" xr:uid="{2583DCDD-432C-4155-A38D-A43D37A5C4CC}"/>
-    <hyperlink ref="C94" r:id="rId85" location="/./notebook_code/calculus_code_graph?id=_13-%e6%b3%b0%e5%8b%92%e5%b1%95%e5%bc%80%e5%bc%8f%ef%bc%88taylor-expansion%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_13-%e6%b3%b0%e5%8b%92%e5%b1%95%e5%bc%80%e5%bc%8f%ef%bc%88taylor-expansion%ef%bc%89" xr:uid="{3A745F69-30E4-48A0-9BD8-63E9BA99F0D5}"/>
-    <hyperlink ref="C95" r:id="rId86" location="/./notebook_code/calculus_code_graph?id=_14-%e5%81%8f%e5%be%ae%e5%88%86%ef%bc%88%e5%81%8f%e5%af%bc%e6%95%b0-partial-derivative%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_14-%e5%81%8f%e5%be%ae%e5%88%86%ef%bc%88%e5%81%8f%e5%af%bc%e6%95%b0-partial-derivative%ef%bc%89" xr:uid="{6BA6A29B-058B-43B8-9564-4DE9B4E5E7D2}"/>
-    <hyperlink ref="B90:B95" r:id="rId87" location="/./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{725E822A-4B07-4E0A-828D-5C8C6B63EE63}"/>
-    <hyperlink ref="B96" r:id="rId88" location="/./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" xr:uid="{5717CF1D-4FB9-4ABB-899E-75ED19F7CB7A}"/>
-    <hyperlink ref="C96" r:id="rId89" location="/./notebook_code/clustering_cityColor?id=_111-%e8%b0%83%e7%a0%94%e5%9b%be%e5%83%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_111-%e8%b0%83%e7%a0%94%e5%9b%be%e5%83%8f" xr:uid="{B16D6296-A02B-4334-90D8-6ADC6C5187C2}"/>
-    <hyperlink ref="C99" r:id="rId90" location="/./notebook_code/clustering_cityColor?id=_112-exifexchangeable-image-file-format-%e5%8f%af%e4%ba%a4%e6%8d%a2%e5%9b%be%e5%83%8f%e6%a0%bc%e5%bc%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_112-exifexchangeable-image-file-format-%e5%8f%af%e4%ba%a4%e6%8d%a2%e5%9b%be%e5%83%8f%e6%a0%bc%e5%bc%8f" xr:uid="{3AE33499-7EF3-488A-A29A-EEB0F14F8893}"/>
-    <hyperlink ref="C100" r:id="rId91" location="/./notebook_code/clustering_cityColor?id=_113-rgb%e8%89%b2%e5%bd%a9%e7%9a%84%e4%b8%89%e7%bb%b4%e5%9b%be%e7%a4%ba" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_113-rgb%e8%89%b2%e5%bd%a9%e7%9a%84%e4%b8%89%e7%bb%b4%e5%9b%be%e7%a4%ba" xr:uid="{B95EE233-3ECE-4541-9163-9007CFFA4EA2}"/>
-    <hyperlink ref="C101" r:id="rId92" location="/./notebook_code/clustering_cityColor?id=_12-%e8%81%9a%e7%b1%bbclustering" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_12-%e8%81%9a%e7%b1%bbclustering" xr:uid="{AED1F5B7-08E2-487C-A32B-669381DD579A}"/>
-    <hyperlink ref="C102" r:id="rId93" location="/./notebook_code/clustering_cityColor?id=_13-%e8%81%9a%e7%b1%bb%e5%9b%be%e5%83%8f%e4%b8%bb%e9%a2%98%e8%89%b2" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_13-%e8%81%9a%e7%b1%bb%e5%9b%be%e5%83%8f%e4%b8%bb%e9%a2%98%e8%89%b2" xr:uid="{9D9E31AD-B7CE-475D-95FD-C66E5CCA7E78}"/>
-    <hyperlink ref="B97:B102" r:id="rId94" location="/./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" xr:uid="{A96A01BD-9020-4DE0-857A-52F0E8C88A14}"/>
-    <hyperlink ref="B103" r:id="rId95" location="/./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" xr:uid="{FFC2A7A0-2A0A-46A7-8D07-1F3B743AE698}"/>
-    <hyperlink ref="C103" r:id="rId96" location="/./notebook_code/urban_lifeCircle?id=_111-dbscan%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_111-dbscan%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" xr:uid="{E7442EC3-79E9-4EB2-ABE1-D62CE4816F75}"/>
-    <hyperlink ref="C104" r:id="rId97" location="/./notebook_code/urban_lifeCircle?id=_112-affinity-propagation%ef%bc%88ap%ef%bc%89%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_112-affinity-propagation%ef%bc%88ap%ef%bc%89%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" xr:uid="{616D89A5-17E3-4A31-BC80-7F2DDF9D1F44}"/>
-    <hyperlink ref="C105" r:id="rId98" location="/./notebook_code/urban_lifeCircle?id=_121-%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83chi-square-distribution%cf%87%c2%b2-distribution" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_121-%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83chi-square-distribution%cf%87%c2%b2-distribution" xr:uid="{7863D845-CB1B-4357-8EF1-5BAAF9D162B8}"/>
-    <hyperlink ref="C107" r:id="rId99" location="/./notebook_code/urban_lifeCircle?id=_122-%ef%bc%88%e5%8d%a1%e6%96%b9%ef%bc%89%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_122-%ef%bc%88%e5%8d%a1%e6%96%b9%ef%bc%89%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c" xr:uid="{19BAC2F2-40AB-4DFF-A053-1B4B9133DC01}"/>
-    <hyperlink ref="C108" r:id="rId100" location="/./notebook_code/urban_lifeCircle?id=_123-%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1covariance-estimators" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_123-%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1covariance-estimators" xr:uid="{29D62C55-D94B-48B4-9CF4-FFD54FE2F9E1}"/>
-    <hyperlink ref="C109" r:id="rId101" location="/./notebook_code/urban_lifeCircle?id=_13-%e5%9f%ba%e4%ba%8e%e7%99%be%e5%ba%a6poi%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e5%b1%82%e7%ba%a7%e4%b8%8b%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_13-%e5%9f%ba%e4%ba%8e%e7%99%be%e5%ba%a6poi%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e5%b1%82%e7%ba%a7%e4%b8%8b%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84" xr:uid="{BFEB9D98-307F-40A3-82FB-789FD56DCE56}"/>
-    <hyperlink ref="C110" r:id="rId102" location="/./notebook_code/urban_lifeCircle?id=_131-%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e4%b8%8e%e4%b8%9a%e6%80%81%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84%e8%ae%a1%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_131-%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e4%b8%8e%e4%b8%9a%e6%80%81%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84%e8%ae%a1%e7%ae%97" xr:uid="{76445D93-243F-4470-8A1D-FB974FE9D871}"/>
-    <hyperlink ref="C111" r:id="rId103" location="/./notebook_code/urban_lifeCircle?id=_132-%e6%9b%b2%e7%ba%bf%e6%8b%90%e7%82%b9%e4%b8%8e%e5%85%b3%e9%94%ae%e5%b1%82%e7%ba%a7" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_132-%e6%9b%b2%e7%ba%bf%e6%8b%90%e7%82%b9%e4%b8%8e%e5%85%b3%e9%94%ae%e5%b1%82%e7%ba%a7" xr:uid="{76EAFA74-426A-42EF-A882-51629DF9F70D}"/>
-    <hyperlink ref="C112" r:id="rId104" location="/./notebook_code/urban_lifeCircle?id=_133-%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e5%9b%be%e8%a1%a8%e6%8b%bc%e5%90%88%ef%bc%8c%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e7%a9%ba%e9%97%b4%e5%8f%98%e5%8c%96%e7%89%b9%e5%be%81%e3%80%82" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_133-%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e5%9b%be%e8%a1%a8%e6%8b%bc%e5%90%88%ef%bc%8c%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e7%a9%ba%e9%97%b4%e5%8f%98%e5%8c%96%e7%89%b9%e5%be%81%e3%80%82" xr:uid="{4C963D1F-AC08-4955-9C31-C3AAE4611D3D}"/>
-    <hyperlink ref="C113" r:id="rId105" location="/./notebook_code/urban_lifeCircle?id=_134-%e4%bf%a1%e6%81%af%e7%86%b5%e5%92%8c%e5%9d%87%e8%a1%a1%e5%ba%a6%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_134-%e4%bf%a1%e6%81%af%e7%86%b5%e5%92%8c%e5%9d%87%e8%a1%a1%e5%ba%a6%e5%88%86%e6%9e%90" xr:uid="{B36C93EC-9EB5-40E0-9781-4BC101636F04}"/>
-    <hyperlink ref="B104:B113" r:id="rId106" location="/./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" xr:uid="{73DF3950-BDBC-4AEF-9EE5-B9263506D2C3}"/>
-    <hyperlink ref="B114" r:id="rId107" location="/./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" xr:uid="{99ADF8CE-35F3-4ADE-A700-1003ADC9D777}"/>
-    <hyperlink ref="C114" r:id="rId108" location="/./notebook_code/openCV?id=_11-opencv%e8%af%bb%e5%8f%96%e5%9b%be%e5%83%8f%e4%b8%8e%e5%9b%be%e5%83%8f%e5%a4%84%e7%90%86%e7%a4%ba%e4%be%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_11-opencv%e8%af%bb%e5%8f%96%e5%9b%be%e5%83%8f%e4%b8%8e%e5%9b%be%e5%83%8f%e5%a4%84%e7%90%86%e7%a4%ba%e4%be%8b" xr:uid="{9AE21EB2-9EE2-4C5A-97DC-F365DD44200E}"/>
-    <hyperlink ref="C115" r:id="rId109" location="/./notebook_code/openCV?id=_12-%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96-%e5%b0%ba%e5%ba%a6%e4%b8%8d%e5%8f%98%e7%89%b9%e5%be%81%e8%bd%ac%e6%8d%a2sift-scale-invariant-feature-transform%ef%bc%8cstar%e7%89%b9%e5%be%81%e6%a3%80%e6%b5%8b%e5%99%a8%ef%bc%8c%e5%9b%be%e5%83%8f%e5%8c%b9%e9%85%8d" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_12-%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96-%e5%b0%ba%e5%ba%a6%e4%b8%8d%e5%8f%98%e7%89%b9%e5%be%81%e8%bd%ac%e6%8d%a2sift-scale-invariant-feature-transform%ef%bc%8cstar%e7%89%b9%e5%be%81%e6%a3%80%e6%b5%8b%e5%99%a8%ef%bc%8c%e5%9b%be%e5%83%8f%e5%8c%b9%e9%85%8d" xr:uid="{732A9A14-81C9-4A83-B119-314C6E65D3F8}"/>
-    <hyperlink ref="C116" r:id="rId110" location="/./notebook_code/openCV?id=_122-%e7%89%b9%e5%be%81%e5%8c%b9%e9%85%8d" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_122-%e7%89%b9%e5%be%81%e5%8c%b9%e9%85%8d" xr:uid="{27B16211-3C5E-4777-93FD-CEA7F47FDC57}"/>
-    <hyperlink ref="C117" r:id="rId111" location="/./notebook_code/openCV?id=_13-kitti%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_13-kitti%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" xr:uid="{F6B548E8-B871-42A7-89C3-66C0154E8056}"/>
-    <hyperlink ref="C118" r:id="rId112" display="http://www.cvlibs.net/datasets/kitti/index.php" xr:uid="{1181847F-6905-4AFD-B03C-0F05C55DC25F}"/>
-    <hyperlink ref="B115:B118" r:id="rId113" location="/./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" xr:uid="{D8CDDEEF-1025-4627-B1C3-79F5EDD08E2B}"/>
-    <hyperlink ref="B119" r:id="rId114" location="/./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" xr:uid="{CBF5E6DD-EF7A-4344-957A-C37E6DD4AE6B}"/>
-    <hyperlink ref="C119" r:id="rId115" location="/./notebook_code/sqlite?id=_11-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e5%9f%ba%e7%a1%80" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_11-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e5%9f%ba%e7%a1%80" xr:uid="{94B0DEA4-899B-4D13-96FB-1FF17C1C4063}"/>
-    <hyperlink ref="C120" r:id="rId116" location="/./notebook_code/sqlite?id=_12-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e8%a1%a8%e9%97%b4%e5%85%b3%e7%b3%bb%e5%a4%9a%e8%a1%a8%e5%85%b3%e8%81%94" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_12-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e8%a1%a8%e9%97%b4%e5%85%b3%e7%b3%bb%e5%a4%9a%e8%a1%a8%e5%85%b3%e8%81%94" xr:uid="{784EDFF1-D970-4D71-8069-35C379164E64}"/>
-    <hyperlink ref="C121" r:id="rId117" location="/./notebook_code/sqlite?id=_13-flask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_13-flask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0" xr:uid="{929FFA04-5E47-4C5D-8107-CC4630DDDC81}"/>
-    <hyperlink ref="C122" r:id="rId118" location="/./notebook_code/sqlite?id=_14-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e9%97%ae%e5%8d%b7%e8%b0%83%e7%a0%94" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_14-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e9%97%ae%e5%8d%b7%e8%b0%83%e7%a0%94" xr:uid="{4C7978BE-4880-4435-B863-ADEE6BE491CE}"/>
-    <hyperlink ref="C123" r:id="rId119" location="/./notebook_code/sqlite?id=_141-%e9%85%8d%e7%bd%ae%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e8%93%9d%e6%9c%ac" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_141-%e9%85%8d%e7%bd%ae%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e8%93%9d%e6%9c%ac" xr:uid="{2CEB1C2A-810B-4D4D-B61C-46939B2E315F}"/>
-    <hyperlink ref="C124" r:id="rId120" location="/./notebook_code/sqlite?id=_142-%e5%ae%9a%e4%b9%89sqlite%e8%a1%a8%e7%bb%93%e6%9e%84%ef%bc%8c%e5%86%99%e5%85%a5%e5%9b%be%e5%83%8f%e4%bf%a1%e6%81%af" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_142-%e5%ae%9a%e4%b9%89sqlite%e8%a1%a8%e7%bb%93%e6%9e%84%ef%bc%8c%e5%86%99%e5%85%a5%e5%9b%be%e5%83%8f%e4%bf%a1%e6%81%af" xr:uid="{3C7D3891-8F33-4174-B9AB-24C549C9DBB7}"/>
-    <hyperlink ref="C125" r:id="rId121" location="/./notebook_code/sqlite?id=_143-%e5%ae%9a%e4%b9%89%e8%b7%af%e7%94%b1%e5%92%8c%e8%a7%86%e5%9b%be%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_143-%e5%ae%9a%e4%b9%89%e8%b7%af%e7%94%b1%e5%92%8c%e8%a7%86%e5%9b%be%e5%87%bd%e6%95%b0" xr:uid="{52A359E5-7955-4B19-AB7B-5802C0B7A705}"/>
-    <hyperlink ref="C126" r:id="rId122" location="/./notebook_code/sqlite?id=_144-%e5%ae%9a%e4%b9%89%e6%a8%a1%e6%9d%bf" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_144-%e5%ae%9a%e4%b9%89%e6%a8%a1%e6%9d%bf" xr:uid="{5D00A05F-0F10-4834-9EE2-D27EE6E360DB}"/>
-    <hyperlink ref="B120:B126" r:id="rId123" location="/./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" xr:uid="{BE9E306F-98B9-456C-AE65-0D4A9D91B295}"/>
-    <hyperlink ref="B127" r:id="rId124" location="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" display="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" xr:uid="{5EAF7573-AC93-46A1-866D-D0FE822D075A}"/>
-    <hyperlink ref="C127" r:id="rId125" location="/./notebook_code/bow_decisionTrees?id=_11-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%e4%b8%8e%e6%9e%84%e5%bb%ba%e5%9b%be%e5%83%8f%e6%98%a0%e5%b0%84%e7%89%b9%e5%be%81" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_11-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%e4%b8%8e%e6%9e%84%e5%bb%ba%e5%9b%be%e5%83%8f%e6%98%a0%e5%b0%84%e7%89%b9%e5%be%81" xr:uid="{1624FF41-3259-4417-8AD5-E89242FC8D90}"/>
-    <hyperlink ref="C128" r:id="rId126" location="/./notebook_code/bow_decisionTrees?id=_121-%e5%86%b3%e7%ad%96%e6%a0%91" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_121-%e5%86%b3%e7%ad%96%e6%a0%91" xr:uid="{9B231390-E1E0-428F-A570-088231C871C8}"/>
-    <hyperlink ref="C129" r:id="rId127" location="/cross_val_score" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /cross_val_score" xr:uid="{E6F4D1F6-2404-4BBE-8DB8-F3218091AFD1}"/>
-    <hyperlink ref="C130" r:id="rId128" location="/./notebook_code/bow_decisionTrees?id=_122-%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_122-%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89" xr:uid="{458D4927-3237-4C0D-AF23-B847351F092F}"/>
-    <hyperlink ref="C131" r:id="rId129" location="/./notebook_code/bow_decisionTrees?id=_13-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_13-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8" xr:uid="{6851F357-2FB1-400C-88C0-4F2D54966D5C}"/>
-    <hyperlink ref="C132" r:id="rId130" location="/./notebook_code/bow_decisionTrees?id=_132-%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_132-%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8" xr:uid="{669820F5-52F0-43C2-8431-440937F29977}"/>
-    <hyperlink ref="C133" r:id="rId131" location="/./notebook_code/bow_decisionTrees?id=_133-%e5%b5%8c%e5%85%a5%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8%e5%88%b0%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_133-%e5%b5%8c%e5%85%a5%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8%e5%88%b0%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0" xr:uid="{D9FD11AD-65ED-4080-8236-6BCCDE293C40}"/>
-    <hyperlink ref="B128:B133" r:id="rId132" location="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" display="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" xr:uid="{FA8FF9E4-835C-4B6E-941A-39BBE8FD1EB1}"/>
-    <hyperlink ref="C134" r:id="rId133" location="/./notebook_code/pytorch?id=_11-%e5%bc%a0%e9%87%8ftensor" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_11-%e5%bc%a0%e9%87%8ftensor" xr:uid="{C1AD26B9-2D19-40A2-A808-CD5E7E346CDB}"/>
-    <hyperlink ref="C135" r:id="rId134" location="/./notebook_code/pytorch?id=_12-%e5%be%ae%e7%a7%af%e5%88%86-%e9%93%be%e5%bc%8f%e6%b3%95%e5%88%99chain-rule" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_12-%e5%be%ae%e7%a7%af%e5%88%86-%e9%93%be%e5%bc%8f%e6%b3%95%e5%88%99chain-rule" xr:uid="{4C06DBAB-0A38-4C54-9660-F2E9546F6CFC}"/>
-    <hyperlink ref="C136" r:id="rId135" location="/./notebook_code/pytorch?id=_13-%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0activation-function" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_13-%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0activation-function" xr:uid="{7F6B7120-7223-43B1-AA69-8E6E1B870139}"/>
-    <hyperlink ref="C137" r:id="rId136" location="/./notebook_code/pytorch?id=_14-%e5%89%8d%e5%90%91%e6%ad%a3%e5%90%91%e4%bc%a0%e6%92%adforward-propagation%e4%b8%8e%e5%90%8e%e5%90%91%ef%bc%88%e5%8f%8d%e5%90%91%ef%bc%89%e4%bc%a0%e6%92%adback-propagation" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_14-%e5%89%8d%e5%90%91%e6%ad%a3%e5%90%91%e4%bc%a0%e6%92%adforward-propagation%e4%b8%8e%e5%90%8e%e5%90%91%ef%bc%88%e5%8f%8d%e5%90%91%ef%bc%89%e4%bc%a0%e6%92%adback-propagation" xr:uid="{043CFB03-0592-4BFA-B3E9-0E55F82593C8}"/>
-    <hyperlink ref="C138" r:id="rId137" location="/./notebook_code/pytorch?id=_15-%e8%87%aa%e5%8a%a8%e6%b1%82%e6%a2%af%e5%ba%a6gradient" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_15-%e8%87%aa%e5%8a%a8%e6%b1%82%e6%a2%af%e5%ba%a6gradient" xr:uid="{138EBF31-E8A5-4BF9-9CC6-C2848744B5CB}"/>
-    <hyperlink ref="C139" r:id="rId138" location="/./notebook_code/pytorch?id=_16-%e7%94%a8pytorch%e6%9e%84%e5%bb%ba%e5%a4%9a%e5%b1%82%e6%84%9f%e7%9f%a5%e6%9c%ba%ef%bc%88%e5%a4%9a%e5%b1%82%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_16-%e7%94%a8pytorch%e6%9e%84%e5%bb%ba%e5%a4%9a%e5%b1%82%e6%84%9f%e7%9f%a5%e6%9c%ba%ef%bc%88%e5%a4%9a%e5%b1%82%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%89" xr:uid="{981EBEA8-74A0-4516-8568-FC2933A086B8}"/>
-    <hyperlink ref="C140" r:id="rId139" location="/./notebook_code/pytorch?id=_161-%e8%87%aa%e5%ae%9a%e4%b9%89%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0%e3%80%81%e6%a8%a1%e5%9e%8b%e3%80%81%e6%8d%9f%e5%a4%b1%e5%87%bd%e6%95%b0%e5%8f%8a%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_161-%e8%87%aa%e5%ae%9a%e4%b9%89%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0%e3%80%81%e6%a8%a1%e5%9e%8b%e3%80%81%e6%8d%9f%e5%a4%b1%e5%87%bd%e6%95%b0%e5%8f%8a%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" xr:uid="{5F3076D0-A935-49B2-9898-B52E289FEC8D}"/>
-    <hyperlink ref="C141" r:id="rId140" location="/./notebook_code/pytorch?id=_162-%e7%9b%b4%e6%8e%a5%e4%bd%bf%e7%94%a8pytorch%e6%8f%90%e4%be%9b%e7%9a%84%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_162-%e7%9b%b4%e6%8e%a5%e4%bd%bf%e7%94%a8pytorch%e6%8f%90%e4%be%9b%e7%9a%84%e5%87%bd%e6%95%b0" xr:uid="{AE017B92-2094-4A42-9339-026C7599372A}"/>
-    <hyperlink ref="C142" r:id="rId141" location="introduction--a-simple-example" display="https://github.com/NVIDIA/runx - introduction--a-simple-example" xr:uid="{2B8C9ECB-EA2B-4D5E-AFE8-03D04BE0F887}"/>
-    <hyperlink ref="B143" r:id="rId142" location="/./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" xr:uid="{80BF9323-06A5-4C77-BE5E-7FB61BDEED31}"/>
-    <hyperlink ref="C143" r:id="rId143" location="/./notebook_code/softmax?id=_11-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_11-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution" xr:uid="{F3137D8A-9645-4484-96DD-6C580F0B2197}"/>
-    <hyperlink ref="C144" r:id="rId144" location="/./notebook_code/softmax?id=_12-%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0likelihood-function" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_12-%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0likelihood-function" xr:uid="{ED2DE1CB-DF13-43C1-9CB9-19ABD22CA383}"/>
-    <hyperlink ref="C145" r:id="rId145" location="/./notebook_code/softmax?id=_13-%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_13-%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle" xr:uid="{4A2D266D-2E1A-4E8C-8771-8954414277DF}"/>
-    <hyperlink ref="C146" r:id="rId146" location="/./notebook_code/softmax?id=_14-%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_14-%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr" xr:uid="{D9C5EA67-6BB2-4CB1-AC0F-643885F2C065}"/>
-    <hyperlink ref="C147" r:id="rId147" location="/./notebook_code/softmax?id=_15-softmax%e5%9b%9e%e5%bd%92%e5%87%bd%e6%95%b0%e5%bd%92%e4%b8%80%e5%8c%96%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_15-softmax%e5%9b%9e%e5%bd%92%e5%87%bd%e6%95%b0%e5%bd%92%e4%b8%80%e5%8c%96%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0" xr:uid="{49E3DE1B-FF05-4317-B0F6-9BAFD7638551}"/>
-    <hyperlink ref="C148" r:id="rId148" location="/./notebook_code/softmax?id=_152-sklearn%e6%9c%ba%e5%99%a8%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_152-sklearn%e6%9c%ba%e5%99%a8%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" xr:uid="{FC9ADC7F-2CB4-4E08-A403-456FC71617E5}"/>
-    <hyperlink ref="C149" r:id="rId149" location="/./notebook_code/softmax?id=_153-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%87%aa%e5%ae%9a%e4%b9%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_153-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%87%aa%e5%ae%9a%e4%b9%89" xr:uid="{AC5006B5-AA3D-4497-A296-4BE9CE0F5AB5}"/>
-    <hyperlink ref="C150" r:id="rId150" location="/./notebook_code/softmax?id=_154-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%b0%83%e7%94%a8%e5%b7%b2%e6%9c%89%e7%ae%97%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_154-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%b0%83%e7%94%a8%e5%b7%b2%e6%9c%89%e7%ae%97%e6%b3%95" xr:uid="{2B04A52F-7647-45F2-912B-51E7606BBA7D}"/>
-    <hyperlink ref="C151" r:id="rId151" location="/./notebook_code/softmax?id=_155-pytorch_softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%ef%bc%8c%e7%94%a8%e4%ba%8e%e5%9b%be%e5%83%8f%e6%95%b0%e6%8d%ae%e9%9b%86fashion-mnist" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_155-pytorch_softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%ef%bc%8c%e7%94%a8%e4%ba%8e%e5%9b%be%e5%83%8f%e6%95%b0%e6%8d%ae%e9%9b%86fashion-mnist" xr:uid="{D76849D5-599D-4C83-923E-4A2ED30B80D8}"/>
-    <hyperlink ref="B144:B151" r:id="rId152" location="/./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" xr:uid="{A6FBF9E1-3770-4F81-AFA0-092E3FF1F196}"/>
-    <hyperlink ref="B152" r:id="rId153" location="/./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" xr:uid="{FD9149BD-C6FF-48D9-A22A-0600D978096D}"/>
-    <hyperlink ref="C152" r:id="rId154" location="/./notebook_code/CNN?id=_11-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9cconvolutional-neural-network-cnn-%e5%8d%b7%e7%a7%af%e5%8e%9f%e7%90%86%e4%b8%8e%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_11-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9cconvolutional-neural-network-cnn-%e5%8d%b7%e7%a7%af%e5%8e%9f%e7%90%86%e4%b8%8e%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c" xr:uid="{904B99E8-B3A2-48BA-BBB0-827A1F6D79A6}"/>
-    <hyperlink ref="C153" r:id="rId155" location="/./notebook_code/CNN?id=_121-%e5%8d%b7%e7%a7%af%e5%b1%82%ef%bc%8c%e6%b1%a0%e5%8c%96%e5%b1%82%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%ef%bc%88%e5%bd%a2%e7%8a%b6%ef%bc%89%e8%ae%a1%e7%ae%97%ef%bc%8c%e5%8f%8a%e6%a0%b9%e6%8d%ae%e8%be%93%e5%85%a5%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%e5%8f%8d%e6%8e%a8%e5%a1%ab%e5%85%85pad" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_121-%e5%8d%b7%e7%a7%af%e5%b1%82%ef%bc%8c%e6%b1%a0%e5%8c%96%e5%b1%82%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%ef%bc%88%e5%bd%a2%e7%8a%b6%ef%bc%89%e8%ae%a1%e7%ae%97%ef%bc%8c%e5%8f%8a%e6%a0%b9%e6%8d%ae%e8%be%93%e5%85%a5%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%e5%8f%8d%e6%8e%a8%e5%a1%ab%e5%85%85pad" xr:uid="{5B27E2DA-5F33-41D5-9DC9-7A5EA8905ABC}"/>
-    <hyperlink ref="C154" r:id="rId156" location="/./notebook_code/CNN?id=_122-%e6%9e%84%e5%bb%ba%e7%ae%80%e5%8d%95%e7%9a%84%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e8%af%86%e5%88%abfashionmnist%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8c%e4%b8%8etensorboard" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_122-%e6%9e%84%e5%bb%ba%e7%ae%80%e5%8d%95%e7%9a%84%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e8%af%86%e5%88%abfashionmnist%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8c%e4%b8%8etensorboard" xr:uid="{412399D9-BC98-4D70-90A5-95120456A20D}"/>
-    <hyperlink ref="C155" r:id="rId157" location="/./notebook_code/CNN?id=_123-%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_123-%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8" xr:uid="{A7F702FC-31B8-4406-B33F-B40BCB5326AA}"/>
-    <hyperlink ref="C156" r:id="rId158" display="https://pytorch.org/docs/stable/torchvision/models.html" xr:uid="{16261113-0073-40D2-B340-72A25545783B}"/>
-    <hyperlink ref="C157" r:id="rId159" location="/./notebook_code/CNN?id=_131-%e8%87%aa%e5%ae%9a%e4%b9%89vgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_131-%e8%87%aa%e5%ae%9a%e4%b9%89vgg%e7%bd%91%e7%bb%9c" xr:uid="{C4D747D8-9548-4562-AF8F-485BF8772694}"/>
-    <hyperlink ref="C158" r:id="rId160" location="/./notebook_code/CNN?id=_132-torchvisionmodels%e5%ae%9e%e7%8e%b0vgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_132-torchvisionmodels%e5%ae%9e%e7%8e%b0vgg%e7%bd%91%e7%bb%9c" xr:uid="{C105C78B-0B4D-4F4F-965D-F51EFFA9CAF5}"/>
-    <hyperlink ref="B153:B158" r:id="rId161" location="/./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" xr:uid="{9ABB031D-C322-4411-918B-D8C796C3B4DA}"/>
-    <hyperlink ref="C24" r:id="rId162" location="/./notebook_code/kde?id=_123-%e8%8a%9d%e5%8a%a0%e5%93%a5%e5%9f%8e%e5%8f%8a%e5%85%b6%e5%8c%ba%e5%9f%9fosm%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e7%9a%84%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_123-%e8%8a%9d%e5%8a%a0%e5%93%a5%e5%9f%8e%e5%8f%8a%e5%85%b6%e5%8c%ba%e5%9f%9fosm%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e7%9a%84%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" xr:uid="{B2F4151B-3784-4697-BF75-3AEC59DB1168}"/>
-    <hyperlink ref="C32" r:id="rId163" location="/./notebook_code/correlation?id=_131-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_131-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83" xr:uid="{34D2B11A-E2A0-4145-8626-C5673F8D09DE}"/>
-    <hyperlink ref="C31" r:id="rId164" location="/./notebook_code/correlation?id=_12-%e7%9b%b8%e5%85%b3%e6%80%a7" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_12-%e7%9b%b8%e5%85%b3%e6%80%a7" xr:uid="{9CB710F5-0F8D-4314-9F98-4530052C8C3D}"/>
-    <hyperlink ref="C30" r:id="rId165" location="/./notebook_code/correlation?id=_116-%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_116-%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" xr:uid="{AF18B29F-F124-4802-80F2-60997F03D8C9}"/>
-    <hyperlink ref="C29" r:id="rId166" location="/./notebook_code/correlation?id=_115-%e6%95%88%e5%ba%94%e9%87%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_115-%e6%95%88%e5%ba%94%e9%87%8f" xr:uid="{048A32A2-07A2-43AF-96FD-1895B59BF4F1}"/>
-    <hyperlink ref="C28" r:id="rId167" location="/./notebook_code/correlation?id=_114-%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_114-%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7" xr:uid="{90BFEC63-A541-4232-AB8D-1173C5D6D724}"/>
-    <hyperlink ref="C27" r:id="rId168" location="/./notebook_code/correlation?id=_113-t%e5%88%86%e5%b8%83-student39s-t-distribution" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_113-t%e5%88%86%e5%b8%83-student39s-t-distribution" xr:uid="{39557A70-72DB-47C8-B487-CBB6FE35090A}"/>
-    <hyperlink ref="C26" r:id="rId169" location="/./notebook_code/correlation?id=_112-%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_112-%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86" xr:uid="{A3829169-4EBB-4A5E-BAC6-F908EF62C9D9}"/>
-    <hyperlink ref="C25" r:id="rId170" location="/./notebook_code/correlation?id=_111-%e6%a0%87%e5%87%86%e8%af%af" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_111-%e6%a0%87%e5%87%86%e8%af%af" xr:uid="{D3949229-4C48-4FAC-9AE8-9E534EBA83E0}"/>
-    <hyperlink ref="C23" r:id="rId171" location="/./notebook_code/kde?id=_122-%e7%bb%99%e5%ae%9ageodataframe%e6%a0%bc%e5%bc%8f%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%ef%bc%8c%e8%ae%a1%e7%ae%97%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e5%ad%98%e5%82%a8%e4%b8%ba%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_122-%e7%bb%99%e5%ae%9ageodataframe%e6%a0%bc%e5%bc%8f%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%ef%bc%8c%e8%ae%a1%e7%ae%97%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e5%ad%98%e5%82%a8%e4%b8%ba%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" xr:uid="{23362325-AF0C-45A0-B1E2-3161498FECE6}"/>
-    <hyperlink ref="C22" r:id="rId172" location="/./notebook_code/kde?id=_121-shp%e6%a0%bc%e5%bc%8f%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_121-shp%e6%a0%bc%e5%bc%8f%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" xr:uid="{25D73B15-0A43-4A62-A43C-B473B938EF36}"/>
-    <hyperlink ref="C21" r:id="rId173" location="/./notebook_code/kde?id=_12-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e7%bb%93%e6%9e%9c%e8%bd%ac%e6%8d%a2%e4%b8%ba%e5%9c%b0%e7%90%86%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_12-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e7%bb%93%e6%9e%9c%e8%bd%ac%e6%8d%a2%e4%b8%ba%e5%9c%b0%e7%90%86%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" xr:uid="{78999C33-1FB4-4ED7-95DB-CC65F5228956}"/>
-    <hyperlink ref="C20" r:id="rId174" location="/./notebook_code/kde?id=_11-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_11-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" xr:uid="{D48829E5-AD19-4954-AE27-77EAC85D8413}"/>
-    <hyperlink ref="C19" r:id="rId175" location="/./notebook_code/OSM_dataProcessing?id=_12-%e8%af%bb%e5%8f%96%e3%80%81%e8%bd%ac%e6%8d%a2osm%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_12-%e8%af%bb%e5%8f%96%e3%80%81%e8%bd%ac%e6%8d%a2osm%e6%95%b0%e6%8d%ae" xr:uid="{DCF8CEBB-7D9F-4B39-B39C-D038ED9FB27A}"/>
-    <hyperlink ref="C18" r:id="rId176" location="/./notebook_code/OSM_dataProcessing?id=_11-osm%e5%8e%9f%e5%a7%8b%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_11-osm%e5%8e%9f%e5%a7%8b%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{2CC0A98D-F8AA-4178-B66A-A12FDEE0C245}"/>
-    <hyperlink ref="C16" r:id="rId177" location="/./notebook_code/normalDis_PDF_outliers?id=_115-%e7%bb%99%e5%ae%9a%e7%89%b9%e5%ae%9a%e5%80%bc%e8%ae%a1%e7%ae%97%e6%a6%82%e7%8e%87%ef%bc%8c%e4%bb%a5%e5%8f%8a%e6%89%be%e5%88%b0%e7%bb%99%e5%ae%9a%e6%a6%82%e7%8e%87%e7%9a%84%e5%80%bc" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_115-%e7%bb%99%e5%ae%9a%e7%89%b9%e5%ae%9a%e5%80%bc%e8%ae%a1%e7%ae%97%e6%a6%82%e7%8e%87%ef%bc%8c%e4%bb%a5%e5%8f%8a%e6%89%be%e5%88%b0%e7%bb%99%e5%ae%9a%e6%a6%82%e7%8e%87%e7%9a%84%e5%80%bc" xr:uid="{F7A3984F-72D5-4B21-8F4A-BC3693F9A175}"/>
-    <hyperlink ref="C14" r:id="rId178" location="/./notebook_code/normalDis_PDF_outliers?id=_114-%e6%a3%80%e9%aa%8c%e6%95%b0%e6%8d%ae%e9%9b%86%e6%98%af%e5%90%a6%e6%9c%8d%e4%bb%8e%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_114-%e6%a3%80%e9%aa%8c%e6%95%b0%e6%8d%ae%e9%9b%86%e6%98%af%e5%90%a6%e6%9c%8d%e4%bb%8e%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" xr:uid="{65FD922F-8D3D-457F-B805-72C712103CE5}"/>
-    <hyperlink ref="C13" r:id="rId179" location="/./notebook_code/normalDis_PDF_outliers?id=_113-%e5%81%8f%e5%ba%a6%e4%b8%8e%e5%b3%b0%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_113-%e5%81%8f%e5%ba%a6%e4%b8%8e%e5%b3%b0%e5%ba%a6" xr:uid="{A8EC869D-0557-44BB-8C2F-E57BD9AD8499}"/>
-    <hyperlink ref="C12" r:id="rId180" location="/./notebook_code/normalDis_PDF_outliers?id=_112-%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%88probability-density-function%ef%bc%8cpdf%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_112-%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%88probability-density-function%ef%bc%8cpdf%ef%bc%89" xr:uid="{C6138183-8F9C-44DD-9896-85D68F766495}"/>
-    <hyperlink ref="C11" r:id="rId181" location="/./notebook_code/normalDis_PDF_outliers?id=_111%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_111%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" xr:uid="{B7D3CAB3-F03A-41DD-88B4-7778AD47331C}"/>
-    <hyperlink ref="C10" r:id="rId182" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_14-%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_14-%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" xr:uid="{AF30704D-6F47-4854-AD80-94C05422F76E}"/>
-    <hyperlink ref="C9" r:id="rId183" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_12-%e6%89%b9%e9%87%8f%e8%bd%ac%e6%8d%a2csv%e6%a0%bc%e5%bc%8f%e6%95%b0%e6%8d%ae%e4%b8%bageodataframe" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_12-%e6%89%b9%e9%87%8f%e8%bd%ac%e6%8d%a2csv%e6%a0%bc%e5%bc%8f%e6%95%b0%e6%8d%ae%e4%b8%bageodataframe" xr:uid="{62675CA5-57AA-4FE1-A038-CCA4ECED5D45}"/>
-    <hyperlink ref="C8" r:id="rId184" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_11-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_11-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" xr:uid="{EBC55A02-4945-43F4-BBFA-9D7795D106C2}"/>
-    <hyperlink ref="C7" r:id="rId185" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_132-%e4%bd%bf%e7%94%a8plotly%e5%ba%93%e5%bb%ba%e7%ab%8b%e5%9c%b0%e5%9b%be" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_singleClassification?id=_132-%e4%bd%bf%e7%94%a8plotly%e5%ba%93%e5%bb%ba%e7%ab%8b%e5%9c%b0%e5%9b%be" xr:uid="{F604793F-2FCF-4426-A971-5C918741D655}"/>
-    <hyperlink ref="C6" r:id="rId186" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_131-%e5%b0%86%e6%95%b0%e6%8d%ae%e6%a0%bc%e5%bc%8f%e4%b8%badataframed%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bageopandas%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e6%95%b0%e6%8d%aegeodataframe" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_131-%e5%b0%86%e6%95%b0%e6%8d%ae%e6%a0%bc%e5%bc%8f%e4%b8%badataframed%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bageopandas%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e6%95%b0%e6%8d%aegeodataframe" xr:uid="{98685E50-862C-49ED-8300-D9732AE4B282}"/>
-    <hyperlink ref="C5" r:id="rId187" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_12-%e5%b0%86csv%e6%a0%bc%e5%bc%8f%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bapandas%e7%9a%84dataframe" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_singleClassification?id=_12-%e5%b0%86csv%e6%a0%bc%e5%bc%8f%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bapandas%e7%9a%84dataframe" xr:uid="{6B53FDBF-92AC-4EB1-84FC-4F5A1AA871AD}"/>
-    <hyperlink ref="C4" r:id="rId188" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_11-%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_11-%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" xr:uid="{74E5D87E-ED62-4170-B6FA-79AE71319220}"/>
-    <hyperlink ref="C3" r:id="rId189" display="http://lbsyun.baidu.com/index.php?title=%E9%A6%96%E9%A1%B5" xr:uid="{CE71176D-1C3E-4249-91A7-53E200B18F17}"/>
+    <hyperlink ref="B171:B177" r:id="rId1" location="/./notebook_code/segnet?id=_1-sentinel-2%ef%bc%8c%e8%81%9a%e7%b1%bb%e5%9c%9f%e5%9c%b0%e5%88%86%e7%b1%bb%ef%bc%8cvgg16%ef%bc%8csegnet%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%af%ad%e4%b9%89%e5%88%86%e5%89%b2%e8%a7%a3%e8%af%91%ef%bc%8c%e8%b6%85%e5%83%8f%e7%b4%a0%e7%ba%a7%e5%88%86%e5%89%b2superpixels-segmentation%ef%bc%8c%e9%ab%98%e7%a9%ba%e5%88%86%e8%be%a8%e7%8e%87%e7%89%b9%e5%be%81%e5%b0%ba%e5%ba%a6%e7%95%8c%e5%ae%9a%ef%bc%8c%e5%8f%8a%e5%b0%ba%e5%ba%a6%e7%9a%84%e6%b7%b1%e5%ba%a6%e6%b5%81%e5%8a%a8%e7%ba%bf%e7%89%b9%e5%be%81%e5%8c%ba%e5%9f%9f%e7%9a%84%e5%bb%b6%e7%94%b3" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/segnet?id=_1-sentinel-2%ef%bc%8c%e8%81%9a%e7%b1%bb%e5%9c%9f%e5%9c%b0%e5%88%86%e7%b1%bb%ef%bc%8cvgg16%ef%bc%8csegnet%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%af%ad%e4%b9%89%e5%88%86%e5%89%b2%e8%a7%a3%e8%af%91%ef%bc%8c%e8%b6%85%e5%83%8f%e7%b4%a0%e7%ba%a7%e5%88%86%e5%89%b2superpixels-segmentation%ef%bc%8c%e9%ab%98%e7%a9%ba%e5%88%86%e8%be%a8%e7%8e%87%e7%89%b9%e5%be%81%e5%b0%ba%e5%ba%a6%e7%95%8c%e5%ae%9a%ef%bc%8c%e5%8f%8a%e5%b0%ba%e5%ba%a6%e7%9a%84%e6%b7%b1%e5%ba%a6%e6%b5%81%e5%8a%a8%e7%ba%bf%e7%89%b9%e5%be%81%e5%8c%ba%e5%9f%9f%e7%9a%84%e5%bb%b6%e7%94%b3" xr:uid="{59A396F9-C10F-4E6C-873A-94FDB0E09EC6}"/>
+    <hyperlink ref="C177" r:id="rId2" location="/./notebook_code/segnet?id=_15-%e8%b6%85%e5%83%8f%e7%b4%a0%e7%ba%a7%e5%88%86%e5%89%b2superpixels-segmentation%ef%bc%8c%e9%ab%98%e7%a9%ba%e5%88%86%e8%be%a8%e7%8e%87%e7%89%b9%e5%be%81%e5%b0%ba%e5%ba%a6%e7%95%8c%e5%ae%9a%ef%bc%8c%e5%8f%8a%e5%b0%ba%e5%ba%a6%e7%9a%84%e6%b7%b1%e5%ba%a6%e6%b5%81%e5%8a%a8%e7%ba%bf%e7%89%b9%e5%be%81%e5%8c%ba%e5%9f%9f%e7%9a%84%e5%bb%b6%e7%94%b3" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/segnet?id=_15-%e8%b6%85%e5%83%8f%e7%b4%a0%e7%ba%a7%e5%88%86%e5%89%b2superpixels-segmentation%ef%bc%8c%e9%ab%98%e7%a9%ba%e5%88%86%e8%be%a8%e7%8e%87%e7%89%b9%e5%be%81%e5%b0%ba%e5%ba%a6%e7%95%8c%e5%ae%9a%ef%bc%8c%e5%8f%8a%e5%b0%ba%e5%ba%a6%e7%9a%84%e6%b7%b1%e5%ba%a6%e6%b5%81%e5%8a%a8%e7%ba%bf%e7%89%b9%e5%be%81%e5%8c%ba%e5%9f%9f%e7%9a%84%e5%bb%b6%e7%94%b3" xr:uid="{A9C0C424-7704-410D-8852-EC1723F99C34}"/>
+    <hyperlink ref="C176" r:id="rId3" display="https://www2.isprs.org/commissions/comm2/wg4/benchmark/data-request-form/" xr:uid="{C7AB85A7-DBBF-44A6-BC9D-161070265FB2}"/>
+    <hyperlink ref="C175" r:id="rId4" location="/./notebook_code/segnet?id=_14-segnet%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%af%ad%e4%b9%89%e5%88%86%e5%89%b2%e8%a7%a3%e8%af%91" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/segnet?id=_14-segnet%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%af%ad%e4%b9%89%e5%88%86%e5%89%b2%e8%a7%a3%e8%af%91" xr:uid="{914201EB-8B65-421C-83E2-F7064F8663DD}"/>
+    <hyperlink ref="C174" r:id="rId5" display="http://www.image-net.org/" xr:uid="{81733232-404D-466E-9888-DC41D55EACCD}"/>
+    <hyperlink ref="C173" r:id="rId6" location="/./notebook_code/segnet?id=_13-vgg16%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/segnet?id=_13-vgg16%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c" xr:uid="{4305FC13-A447-4ABE-9698-3A105EBBD003}"/>
+    <hyperlink ref="C172" r:id="rId7" location="/./notebook_code/segnet?id=_12-%e6%97%a0%e7%9b%91%e7%9d%a3%e5%9c%9f%e5%9c%b0%e5%88%86%e7%b1%bb%e8%81%9a%e7%b1%bb%e6%96%b9%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/segnet?id=_12-%e6%97%a0%e7%9b%91%e7%9d%a3%e5%9c%9f%e5%9c%b0%e5%88%86%e7%b1%bb%e8%81%9a%e7%b1%bb%e6%96%b9%e6%b3%95" xr:uid="{90D60DB3-A5C4-466A-AD2E-26F80FE10D97}"/>
+    <hyperlink ref="C171" r:id="rId8" location="/./notebook_code/segnet?id=_111-%e4%bb%a5web-mercator%e6%96%b9%e5%bc%8f%e6%98%be%e7%a4%basentinel-2%e7%9a%84%e4%b8%80%e4%b8%aa%e6%b3%a2%e6%ae%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/segnet?id=_111-%e4%bb%a5web-mercator%e6%96%b9%e5%bc%8f%e6%98%be%e7%a4%basentinel-2%e7%9a%84%e4%b8%80%e4%b8%aa%e6%b3%a2%e6%ae%b5" xr:uid="{492C6AC9-3A64-43A4-828A-B30BC49C1AC5}"/>
+    <hyperlink ref="C170" r:id="rId9" display="https://sentinels.copernicus.eu/web/sentinel/missions/sentinel-2" xr:uid="{E67D7ED6-FCD5-4478-900A-CD828957EC4B}"/>
+    <hyperlink ref="B170" r:id="rId10" location="/./notebook_code/segnet?id=_1-sentinel-2%ef%bc%8c%e8%81%9a%e7%b1%bb%e5%9c%9f%e5%9c%b0%e5%88%86%e7%b1%bb%ef%bc%8cvgg16%ef%bc%8csegnet%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%af%ad%e4%b9%89%e5%88%86%e5%89%b2%e8%a7%a3%e8%af%91%ef%bc%8c%e8%b6%85%e5%83%8f%e7%b4%a0%e7%ba%a7%e5%88%86%e5%89%b2superpixels-segmentation%ef%bc%8c%e9%ab%98%e7%a9%ba%e5%88%86%e8%be%a8%e7%8e%87%e7%89%b9%e5%be%81%e5%b0%ba%e5%ba%a6%e7%95%8c%e5%ae%9a%ef%bc%8c%e5%8f%8a%e5%b0%ba%e5%ba%a6%e7%9a%84%e6%b7%b1%e5%ba%a6%e6%b5%81%e5%8a%a8%e7%ba%bf%e7%89%b9%e5%be%81%e5%8c%ba%e5%9f%9f%e7%9a%84%e5%bb%b6%e7%94%b3" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/segnet?id=_1-sentinel-2%ef%bc%8c%e8%81%9a%e7%b1%bb%e5%9c%9f%e5%9c%b0%e5%88%86%e7%b1%bb%ef%bc%8cvgg16%ef%bc%8csegnet%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%af%ad%e4%b9%89%e5%88%86%e5%89%b2%e8%a7%a3%e8%af%91%ef%bc%8c%e8%b6%85%e5%83%8f%e7%b4%a0%e7%ba%a7%e5%88%86%e5%89%b2superpixels-segmentation%ef%bc%8c%e9%ab%98%e7%a9%ba%e5%88%86%e8%be%a8%e7%8e%87%e7%89%b9%e5%be%81%e5%b0%ba%e5%ba%a6%e7%95%8c%e5%ae%9a%ef%bc%8c%e5%8f%8a%e5%b0%ba%e5%ba%a6%e7%9a%84%e6%b7%b1%e5%ba%a6%e6%b5%81%e5%8a%a8%e7%ba%bf%e7%89%b9%e5%be%81%e5%8c%ba%e5%9f%9f%e7%9a%84%e5%bb%b6%e7%94%b3" xr:uid="{C27D8CEA-9EEE-44DC-B753-FCE41BA93A29}"/>
+    <hyperlink ref="B164:B169" r:id="rId11" location="/./notebook_code/DUC?id=_1-%e5%bc%80%e6%94%be%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e4%ba%a4%e6%8d%a2-onnxopen-neural-networkexchage%ef%bc%8cnetron%ef%bc%8ccityscapes%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8cducdense-upsampling-convolution%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e8%a6%81%e7%b4%a0%e7%bb%84%e6%88%90%ef%bc%8c%e6%97%b6%e7%a9%ba%e9%87%8f%e5%ba%a6%ef%bc%8c%e7%bb%bf%e8%a7%86%e7%8e%87" display="/./notebook_code/DUC?id=_1-%e5%bc%80%e6%94%be%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e4%ba%a4%e6%8d%a2-onnxopen-neural-networkexchage%ef%bc%8cnetron%ef%bc%8ccityscapes%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8cducdense-upsampling-convolution%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e8%a6%81%e7%b4%a0%e7%bb%84%e6%88%90%ef%bc%8c%e6%97%b6%e7%a9%ba%e9%87%8f%e5%ba%a6%ef%bc%8c%e7%bb%bf%e8%a7%86%e7%8e%87" xr:uid="{88C51569-BBB0-45B3-9169-3E2B4D74ECEA}"/>
+    <hyperlink ref="C169" r:id="rId12" location="/./notebook_code/DUC?id=_16-%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e8%a6%81%e7%b4%a0%e7%bb%84%e6%88%90%ef%bc%8c%e6%97%b6%e7%a9%ba%e9%87%8f%e5%ba%a6%ef%bc%8c%e7%bb%bf%e8%a7%86%e7%8e%87%ef%bc%8c%e5%9d%87%e8%a1%a1%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/DUC?id=_16-%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e8%a6%81%e7%b4%a0%e7%bb%84%e6%88%90%ef%bc%8c%e6%97%b6%e7%a9%ba%e9%87%8f%e5%ba%a6%ef%bc%8c%e7%bb%bf%e8%a7%86%e7%8e%87%ef%bc%8c%e5%9d%87%e8%a1%a1%e5%ba%a6" xr:uid="{A0F428F2-707E-4B49-BF4C-F7A33BEB38F3}"/>
+    <hyperlink ref="C168" r:id="rId13" location="/object_detection_segmentation" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /object_detection_segmentation" xr:uid="{EDD51213-F6B2-417A-8D3B-B9659C1716D9}"/>
+    <hyperlink ref="C167" r:id="rId14" location="/./notebook_code/DUC?id=_141-%e5%8f%82%e6%95%b0%e7%ae%a1%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/DUC?id=_141-%e5%8f%82%e6%95%b0%e7%ae%a1%e7%90%86" xr:uid="{AF5B5796-E85C-4B59-BFA0-229C54EF5854}"/>
+    <hyperlink ref="C166" r:id="rId15" display="https://github.com/NVIDIA/semantic-segmentation" xr:uid="{DDBC3C82-6E0B-4746-8C31-0BA857A8C06B}"/>
+    <hyperlink ref="C165" r:id="rId16" display="https://www.cityscapes-dataset.com/" xr:uid="{697529DC-92A9-4488-BF51-0951E8B6BEC5}"/>
+    <hyperlink ref="C164" r:id="rId17" display="https://github.com/lutzroeder/Netron" xr:uid="{BAA657B3-3E71-4686-B36D-85467C1A7458}"/>
+    <hyperlink ref="C163" r:id="rId18" display="https://onnx.ai/supported-tools.html" xr:uid="{E0D6A13B-653A-43A1-B5B3-935470D3A46E}"/>
+    <hyperlink ref="B163" r:id="rId19" location="/./notebook_code/DUC?id=_1-%e5%bc%80%e6%94%be%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e4%ba%a4%e6%8d%a2-onnxopen-neural-networkexchage%ef%bc%8cnetron%ef%bc%8ccityscapes%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8cducdense-upsampling-convolution%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e8%a6%81%e7%b4%a0%e7%bb%84%e6%88%90%ef%bc%8c%e6%97%b6%e7%a9%ba%e9%87%8f%e5%ba%a6%ef%bc%8c%e7%bb%bf%e8%a7%86%e7%8e%87" display="/./notebook_code/DUC?id=_1-%e5%bc%80%e6%94%be%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e4%ba%a4%e6%8d%a2-onnxopen-neural-networkexchage%ef%bc%8cnetron%ef%bc%8ccityscapes%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8cducdense-upsampling-convolution%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e8%a6%81%e7%b4%a0%e7%bb%84%e6%88%90%ef%bc%8c%e6%97%b6%e7%a9%ba%e9%87%8f%e5%ba%a6%ef%bc%8c%e7%bb%bf%e8%a7%86%e7%8e%87" xr:uid="{67924D3B-C5D8-46AD-AE46-6521DD33B6DF}"/>
+    <hyperlink ref="B160:B162" r:id="rId20" location="/./notebook_code/R_CNN?id=_1-%e5%af%b9%e8%b1%a1%e6%a3%80%e6%b5%8bmask-r-cnn%e4%b8%8e%e4%ba%ba%e6%b5%81%e9%87%8f%e4%bc%b0%e7%ae%97%ef%bc%9b%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%ef%bc%88torchvisionmodels%ef%bc%89%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e5%86%85%e5%ae%b9%e7%bb%9f%e8%ae%a1%ef%bc%8c%e5%8f%8a%e5%85%b3%e8%81%94%e7%bd%91%e7%bb%9c%e7%bb%93%e6%9e%84" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/R_CNN?id=_1-%e5%af%b9%e8%b1%a1%e6%a3%80%e6%b5%8bmask-r-cnn%e4%b8%8e%e4%ba%ba%e6%b5%81%e9%87%8f%e4%bc%b0%e7%ae%97%ef%bc%9b%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%ef%bc%88torchvisionmodels%ef%bc%89%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e5%86%85%e5%ae%b9%e7%bb%9f%e8%ae%a1%ef%bc%8c%e5%8f%8a%e5%85%b3%e8%81%94%e7%bd%91%e7%bb%9c%e7%bb%93%e6%9e%84" xr:uid="{FA73477D-1EA7-40D2-829B-F977E9EA1985}"/>
+    <hyperlink ref="C162" r:id="rId21" location="/./notebook_code/R_CNN?id=_121-%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e5%86%85%e5%ae%b9%e7%bb%9f%e8%ae%a1%e4%b8%8e%e5%85%b3%e8%81%94%e7%bd%91%e7%bb%9c%e7%bb%93%e6%9e%84" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/R_CNN?id=_121-%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e5%86%85%e5%ae%b9%e7%bb%9f%e8%ae%a1%e4%b8%8e%e5%85%b3%e8%81%94%e7%bd%91%e7%bb%9c%e7%bb%93%e6%9e%84" xr:uid="{1180E2B1-28A2-41F7-ABBD-3074BDFDC841}"/>
+    <hyperlink ref="C161" r:id="rId22" location="/./notebook_code/R_CNN?id=_121-fcn-resnet101%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/R_CNN?id=_121-fcn-resnet101%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2" xr:uid="{1E9DC456-3BAE-4F3C-A0D4-CAC4DF928E14}"/>
+    <hyperlink ref="C160" r:id="rId23" location="home" display="https://cocodataset.org/ - home" xr:uid="{E762E6E1-3E9D-4FC8-96C0-E7025CC9C448}"/>
+    <hyperlink ref="C159" r:id="rId24" location="/./notebook_code/R_CNN?id=_11-%e5%af%b9%e8%b1%a1%e7%9b%ae%e6%a0%87%e6%a3%80%e6%b5%8b%ef%bc%88%e8%a1%8c%e4%ba%ba%ef%bc%89%e4%b8%8e%e4%ba%ba%e6%b5%81%e9%87%8f%e4%bc%b0%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/R_CNN?id=_11-%e5%af%b9%e8%b1%a1%e7%9b%ae%e6%a0%87%e6%a3%80%e6%b5%8b%ef%bc%88%e8%a1%8c%e4%ba%ba%ef%bc%89%e4%b8%8e%e4%ba%ba%e6%b5%81%e9%87%8f%e4%bc%b0%e7%ae%97" xr:uid="{19233B36-B3EF-4008-A81B-D437E69B592D}"/>
+    <hyperlink ref="B159" r:id="rId25" location="/./notebook_code/R_CNN?id=_1-%e5%af%b9%e8%b1%a1%e6%a3%80%e6%b5%8bmask-r-cnn%e4%b8%8e%e4%ba%ba%e6%b5%81%e9%87%8f%e4%bc%b0%e7%ae%97%ef%bc%9b%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%ef%bc%88torchvisionmodels%ef%bc%89%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e5%86%85%e5%ae%b9%e7%bb%9f%e8%ae%a1%ef%bc%8c%e5%8f%8a%e5%85%b3%e8%81%94%e7%bd%91%e7%bb%9c%e7%bb%93%e6%9e%84" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/R_CNN?id=_1-%e5%af%b9%e8%b1%a1%e6%a3%80%e6%b5%8bmask-r-cnn%e4%b8%8e%e4%ba%ba%e6%b5%81%e9%87%8f%e4%bc%b0%e7%ae%97%ef%bc%9b%e5%9b%be%e5%83%8f%e5%88%86%e5%89%b2%ef%bc%88torchvisionmodels%ef%bc%89%e4%b8%8e%e5%9f%8e%e5%b8%82%e7%a9%ba%e9%97%b4%e5%86%85%e5%ae%b9%e7%bb%9f%e8%ae%a1%ef%bc%8c%e5%8f%8a%e5%85%b3%e8%81%94%e7%bd%91%e7%bb%9c%e7%bb%93%e6%9e%84" xr:uid="{22F0CB5B-191B-4050-A70C-96D8FBE06B0F}"/>
+    <hyperlink ref="C3" r:id="rId26" display="http://lbsyun.baidu.com/index.php?title=%E9%A6%96%E9%A1%B5" xr:uid="{CE71176D-1C3E-4249-91A7-53E200B18F17}"/>
+    <hyperlink ref="C4" r:id="rId27" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_11-%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_11-%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" xr:uid="{74E5D87E-ED62-4170-B6FA-79AE71319220}"/>
+    <hyperlink ref="C5" r:id="rId28" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_12-%e5%b0%86csv%e6%a0%bc%e5%bc%8f%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bapandas%e7%9a%84dataframe" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_singleClassification?id=_12-%e5%b0%86csv%e6%a0%bc%e5%bc%8f%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bapandas%e7%9a%84dataframe" xr:uid="{6B53FDBF-92AC-4EB1-84FC-4F5A1AA871AD}"/>
+    <hyperlink ref="C6" r:id="rId29" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_131-%e5%b0%86%e6%95%b0%e6%8d%ae%e6%a0%bc%e5%bc%8f%e4%b8%badataframed%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bageopandas%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e6%95%b0%e6%8d%aegeodataframe" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_131-%e5%b0%86%e6%95%b0%e6%8d%ae%e6%a0%bc%e5%bc%8f%e4%b8%badataframed%e7%9a%84poi%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%8d%a2%e4%b8%bageopandas%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e6%95%b0%e6%8d%aegeodataframe" xr:uid="{98685E50-862C-49ED-8300-D9732AE4B282}"/>
+    <hyperlink ref="C7" r:id="rId30" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=_132-%e4%bd%bf%e7%94%a8plotly%e5%ba%93%e5%bb%ba%e7%ab%8b%e5%9c%b0%e5%9b%be" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_singleClassification?id=_132-%e4%bd%bf%e7%94%a8plotly%e5%ba%93%e5%bb%ba%e7%ab%8b%e5%9c%b0%e5%9b%be" xr:uid="{F604793F-2FCF-4426-A971-5C918741D655}"/>
+    <hyperlink ref="C8" r:id="rId31" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_11-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_11-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e7%88%ac%e5%8f%96" xr:uid="{EBC55A02-4945-43F4-BBFA-9D7795D106C2}"/>
+    <hyperlink ref="C9" r:id="rId32" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_12-%e6%89%b9%e9%87%8f%e8%bd%ac%e6%8d%a2csv%e6%a0%bc%e5%bc%8f%e6%95%b0%e6%8d%ae%e4%b8%bageodataframe" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_12-%e6%89%b9%e9%87%8f%e8%bd%ac%e6%8d%a2csv%e6%a0%bc%e5%bc%8f%e6%95%b0%e6%8d%ae%e4%b8%bageodataframe" xr:uid="{62675CA5-57AA-4FE1-A038-CCA4ECED5D45}"/>
+    <hyperlink ref="C10" r:id="rId33" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_14-%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_14-%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" xr:uid="{AF30704D-6F47-4854-AD80-94C05422F76E}"/>
+    <hyperlink ref="C11" r:id="rId34" location="/./notebook_code/normalDis_PDF_outliers?id=_111%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_111%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" xr:uid="{B7D3CAB3-F03A-41DD-88B4-7778AD47331C}"/>
+    <hyperlink ref="C12" r:id="rId35" location="/./notebook_code/normalDis_PDF_outliers?id=_112-%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%88probability-density-function%ef%bc%8cpdf%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_112-%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%88probability-density-function%ef%bc%8cpdf%ef%bc%89" xr:uid="{C6138183-8F9C-44DD-9896-85D68F766495}"/>
+    <hyperlink ref="C13" r:id="rId36" location="/./notebook_code/normalDis_PDF_outliers?id=_113-%e5%81%8f%e5%ba%a6%e4%b8%8e%e5%b3%b0%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_113-%e5%81%8f%e5%ba%a6%e4%b8%8e%e5%b3%b0%e5%ba%a6" xr:uid="{A8EC869D-0557-44BB-8C2F-E57BD9AD8499}"/>
+    <hyperlink ref="C14" r:id="rId37" location="/./notebook_code/normalDis_PDF_outliers?id=_114-%e6%a3%80%e9%aa%8c%e6%95%b0%e6%8d%ae%e9%9b%86%e6%98%af%e5%90%a6%e6%9c%8d%e4%bb%8e%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_114-%e6%a3%80%e9%aa%8c%e6%95%b0%e6%8d%ae%e9%9b%86%e6%98%af%e5%90%a6%e6%9c%8d%e4%bb%8e%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83" xr:uid="{65FD922F-8D3D-457F-B805-72C712103CE5}"/>
+    <hyperlink ref="C16" r:id="rId38" location="/./notebook_code/normalDis_PDF_outliers?id=_115-%e7%bb%99%e5%ae%9a%e7%89%b9%e5%ae%9a%e5%80%bc%e8%ae%a1%e7%ae%97%e6%a6%82%e7%8e%87%ef%bc%8c%e4%bb%a5%e5%8f%8a%e6%89%be%e5%88%b0%e7%bb%99%e5%ae%9a%e6%a6%82%e7%8e%87%e7%9a%84%e5%80%bc" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_115-%e7%bb%99%e5%ae%9a%e7%89%b9%e5%ae%9a%e5%80%bc%e8%ae%a1%e7%ae%97%e6%a6%82%e7%8e%87%ef%bc%8c%e4%bb%a5%e5%8f%8a%e6%89%be%e5%88%b0%e7%bb%99%e5%ae%9a%e6%a6%82%e7%8e%87%e7%9a%84%e5%80%bc" xr:uid="{F7A3984F-72D5-4B21-8F4A-BC3693F9A175}"/>
+    <hyperlink ref="C18" r:id="rId39" location="/./notebook_code/OSM_dataProcessing?id=_11-osm%e5%8e%9f%e5%a7%8b%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_11-osm%e5%8e%9f%e5%a7%8b%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{2CC0A98D-F8AA-4178-B66A-A12FDEE0C245}"/>
+    <hyperlink ref="C19" r:id="rId40" location="/./notebook_code/OSM_dataProcessing?id=_12-%e8%af%bb%e5%8f%96%e3%80%81%e8%bd%ac%e6%8d%a2osm%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_12-%e8%af%bb%e5%8f%96%e3%80%81%e8%bd%ac%e6%8d%a2osm%e6%95%b0%e6%8d%ae" xr:uid="{DCF8CEBB-7D9F-4B39-B39C-D038ED9FB27A}"/>
+    <hyperlink ref="C20" r:id="rId41" location="/./notebook_code/kde?id=_11-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_11-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" xr:uid="{D48829E5-AD19-4954-AE27-77EAC85D8413}"/>
+    <hyperlink ref="C21" r:id="rId42" location="/./notebook_code/kde?id=_12-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e7%bb%93%e6%9e%9c%e8%bd%ac%e6%8d%a2%e4%b8%ba%e5%9c%b0%e7%90%86%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_12-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e7%bb%93%e6%9e%9c%e8%bd%ac%e6%8d%a2%e4%b8%ba%e5%9c%b0%e7%90%86%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" xr:uid="{78999C33-1FB4-4ED7-95DB-CC65F5228956}"/>
+    <hyperlink ref="C22" r:id="rId43" location="/./notebook_code/kde?id=_121-shp%e6%a0%bc%e5%bc%8f%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_121-shp%e6%a0%bc%e5%bc%8f%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e8%bd%ac%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" xr:uid="{25D73B15-0A43-4A62-A43C-B473B938EF36}"/>
+    <hyperlink ref="C23" r:id="rId44" location="/./notebook_code/kde?id=_122-%e7%bb%99%e5%ae%9ageodataframe%e6%a0%bc%e5%bc%8f%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%ef%bc%8c%e8%ae%a1%e7%ae%97%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e5%ad%98%e5%82%a8%e4%b8%ba%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_122-%e7%bb%99%e5%ae%9ageodataframe%e6%a0%bc%e5%bc%8f%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%ef%bc%8c%e8%ae%a1%e7%ae%97%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e5%ad%98%e5%82%a8%e4%b8%ba%e6%a0%85%e6%a0%bc%e6%95%b0%e6%8d%ae" xr:uid="{23362325-AF0C-45A0-B1E2-3161498FECE6}"/>
+    <hyperlink ref="C25" r:id="rId45" location="/./notebook_code/correlation?id=_111-%e6%a0%87%e5%87%86%e8%af%af" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_111-%e6%a0%87%e5%87%86%e8%af%af" xr:uid="{D3949229-4C48-4FAC-9AE8-9E534EBA83E0}"/>
+    <hyperlink ref="C26" r:id="rId46" location="/./notebook_code/correlation?id=_112-%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_112-%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86" xr:uid="{A3829169-4EBB-4A5E-BAC6-F908EF62C9D9}"/>
+    <hyperlink ref="C27" r:id="rId47" location="/./notebook_code/correlation?id=_113-t%e5%88%86%e5%b8%83-student39s-t-distribution" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_113-t%e5%88%86%e5%b8%83-student39s-t-distribution" xr:uid="{39557A70-72DB-47C8-B487-CBB6FE35090A}"/>
+    <hyperlink ref="C28" r:id="rId48" location="/./notebook_code/correlation?id=_114-%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_114-%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7" xr:uid="{90BFEC63-A541-4232-AB8D-1173C5D6D724}"/>
+    <hyperlink ref="C29" r:id="rId49" location="/./notebook_code/correlation?id=_115-%e6%95%88%e5%ba%94%e9%87%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_115-%e6%95%88%e5%ba%94%e9%87%8f" xr:uid="{048A32A2-07A2-43AF-96FD-1895B59BF4F1}"/>
+    <hyperlink ref="C30" r:id="rId50" location="/./notebook_code/correlation?id=_116-%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_116-%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" xr:uid="{AF18B29F-F124-4802-80F2-60997F03D8C9}"/>
+    <hyperlink ref="C31" r:id="rId51" location="/./notebook_code/correlation?id=_12-%e7%9b%b8%e5%85%b3%e6%80%a7" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_12-%e7%9b%b8%e5%85%b3%e6%80%a7" xr:uid="{9CB710F5-0F8D-4314-9F98-4530052C8C3D}"/>
+    <hyperlink ref="C32" r:id="rId52" location="/./notebook_code/correlation?id=_131-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_131-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83" xr:uid="{34D2B11A-E2A0-4145-8626-C5673F8D09DE}"/>
+    <hyperlink ref="C24" r:id="rId53" location="/./notebook_code/kde?id=_123-%e8%8a%9d%e5%8a%a0%e5%93%a5%e5%9f%8e%e5%8f%8a%e5%85%b6%e5%8c%ba%e5%9f%9fosm%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e7%9a%84%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_123-%e8%8a%9d%e5%8a%a0%e5%93%a5%e5%9f%8e%e5%8f%8a%e5%85%b6%e5%8c%ba%e5%9f%9fosm%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e6%95%b0%e6%8d%ae%e7%9a%84%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1" xr:uid="{B2F4151B-3784-4697-BF75-3AEC59DB1168}"/>
+    <hyperlink ref="B153:B158" r:id="rId54" location="/./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" xr:uid="{9ABB031D-C322-4411-918B-D8C796C3B4DA}"/>
+    <hyperlink ref="C158" r:id="rId55" location="/./notebook_code/CNN?id=_132-torchvisionmodels%e5%ae%9e%e7%8e%b0vgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_132-torchvisionmodels%e5%ae%9e%e7%8e%b0vgg%e7%bd%91%e7%bb%9c" xr:uid="{C105C78B-0B4D-4F4F-965D-F51EFFA9CAF5}"/>
+    <hyperlink ref="C157" r:id="rId56" location="/./notebook_code/CNN?id=_131-%e8%87%aa%e5%ae%9a%e4%b9%89vgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_131-%e8%87%aa%e5%ae%9a%e4%b9%89vgg%e7%bd%91%e7%bb%9c" xr:uid="{C4D747D8-9548-4562-AF8F-485BF8772694}"/>
+    <hyperlink ref="C156" r:id="rId57" display="https://pytorch.org/docs/stable/torchvision/models.html" xr:uid="{16261113-0073-40D2-B340-72A25545783B}"/>
+    <hyperlink ref="C155" r:id="rId58" location="/./notebook_code/CNN?id=_123-%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_123-%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8" xr:uid="{A7F702FC-31B8-4406-B33F-B40BCB5326AA}"/>
+    <hyperlink ref="C154" r:id="rId59" location="/./notebook_code/CNN?id=_122-%e6%9e%84%e5%bb%ba%e7%ae%80%e5%8d%95%e7%9a%84%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e8%af%86%e5%88%abfashionmnist%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8c%e4%b8%8etensorboard" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_122-%e6%9e%84%e5%bb%ba%e7%ae%80%e5%8d%95%e7%9a%84%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%e8%af%86%e5%88%abfashionmnist%e6%95%b0%e6%8d%ae%e9%9b%86%ef%bc%8c%e4%b8%8etensorboard" xr:uid="{412399D9-BC98-4D70-90A5-95120456A20D}"/>
+    <hyperlink ref="C153" r:id="rId60" location="/./notebook_code/CNN?id=_121-%e5%8d%b7%e7%a7%af%e5%b1%82%ef%bc%8c%e6%b1%a0%e5%8c%96%e5%b1%82%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%ef%bc%88%e5%bd%a2%e7%8a%b6%ef%bc%89%e8%ae%a1%e7%ae%97%ef%bc%8c%e5%8f%8a%e6%a0%b9%e6%8d%ae%e8%be%93%e5%85%a5%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%e5%8f%8d%e6%8e%a8%e5%a1%ab%e5%85%85pad" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_121-%e5%8d%b7%e7%a7%af%e5%b1%82%ef%bc%8c%e6%b1%a0%e5%8c%96%e5%b1%82%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%ef%bc%88%e5%bd%a2%e7%8a%b6%ef%bc%89%e8%ae%a1%e7%ae%97%ef%bc%8c%e5%8f%8a%e6%a0%b9%e6%8d%ae%e8%be%93%e5%85%a5%e8%be%93%e5%87%ba%e5%b0%ba%e5%af%b8%e5%8f%8d%e6%8e%a8%e5%a1%ab%e5%85%85pad" xr:uid="{5B27E2DA-5F33-41D5-9DC9-7A5EA8905ABC}"/>
+    <hyperlink ref="C152" r:id="rId61" location="/./notebook_code/CNN?id=_11-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9cconvolutional-neural-network-cnn-%e5%8d%b7%e7%a7%af%e5%8e%9f%e7%90%86%e4%b8%8e%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_11-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9cconvolutional-neural-network-cnn-%e5%8d%b7%e7%a7%af%e5%8e%9f%e7%90%86%e4%b8%8e%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c" xr:uid="{904B99E8-B3A2-48BA-BBB0-827A1F6D79A6}"/>
+    <hyperlink ref="B152" r:id="rId62" location="/./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/CNN?id=_1-%e5%8d%b7%e7%a7%af%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%8c%e5%8f%af%e8%a7%86%e5%8c%96%e5%8d%b7%e7%a7%af%e5%b1%82%e5%8d%b7%e7%a7%af%e6%a0%b8tensorboardtorchvisionmodels%e4%b8%8evgg%e7%bd%91%e7%bb%9c" xr:uid="{FD9149BD-C6FF-48D9-A22A-0600D978096D}"/>
+    <hyperlink ref="B144:B151" r:id="rId63" location="/./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" xr:uid="{A6FBF9E1-3770-4F81-AFA0-092E3FF1F196}"/>
+    <hyperlink ref="C151" r:id="rId64" location="/./notebook_code/softmax?id=_155-pytorch_softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%ef%bc%8c%e7%94%a8%e4%ba%8e%e5%9b%be%e5%83%8f%e6%95%b0%e6%8d%ae%e9%9b%86fashion-mnist" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_155-pytorch_softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%ef%bc%8c%e7%94%a8%e4%ba%8e%e5%9b%be%e5%83%8f%e6%95%b0%e6%8d%ae%e9%9b%86fashion-mnist" xr:uid="{D76849D5-599D-4C83-923E-4A2ED30B80D8}"/>
+    <hyperlink ref="C150" r:id="rId65" location="/./notebook_code/softmax?id=_154-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%b0%83%e7%94%a8%e5%b7%b2%e6%9c%89%e7%ae%97%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_154-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%b0%83%e7%94%a8%e5%b7%b2%e6%9c%89%e7%ae%97%e6%b3%95" xr:uid="{2B04A52F-7647-45F2-912B-51E7606BBA7D}"/>
+    <hyperlink ref="C149" r:id="rId66" location="/./notebook_code/softmax?id=_153-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%87%aa%e5%ae%9a%e4%b9%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_153-pytorch%e6%b7%b1%e5%ba%a6%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb%e8%87%aa%e5%ae%9a%e4%b9%89" xr:uid="{AC5006B5-AA3D-4497-A296-4BE9CE0F5AB5}"/>
+    <hyperlink ref="C148" r:id="rId67" location="/./notebook_code/softmax?id=_152-sklearn%e6%9c%ba%e5%99%a8%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_152-sklearn%e6%9c%ba%e5%99%a8%e5%ad%a6%e4%b9%a0%e5%ba%93%e5%ae%9e%e7%8e%b0softmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" xr:uid="{FC9ADC7F-2CB4-4E08-A403-456FC71617E5}"/>
+    <hyperlink ref="C147" r:id="rId68" location="/./notebook_code/softmax?id=_15-softmax%e5%9b%9e%e5%bd%92%e5%87%bd%e6%95%b0%e5%bd%92%e4%b8%80%e5%8c%96%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_15-softmax%e5%9b%9e%e5%bd%92%e5%87%bd%e6%95%b0%e5%bd%92%e4%b8%80%e5%8c%96%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0" xr:uid="{49E3DE1B-FF05-4317-B0F6-9BAFD7638551}"/>
+    <hyperlink ref="C146" r:id="rId69" location="/./notebook_code/softmax?id=_14-%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_14-%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr" xr:uid="{D9C5EA67-6BB2-4CB1-AC0F-643885F2C065}"/>
+    <hyperlink ref="C145" r:id="rId70" location="/./notebook_code/softmax?id=_13-%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_13-%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle" xr:uid="{4A2D266D-2E1A-4E8C-8771-8954414277DF}"/>
+    <hyperlink ref="C144" r:id="rId71" location="/./notebook_code/softmax?id=_12-%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0likelihood-function" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_12-%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0likelihood-function" xr:uid="{ED2DE1CB-DF13-43C1-9CB9-19ABD22CA383}"/>
+    <hyperlink ref="C143" r:id="rId72" location="/./notebook_code/softmax?id=_11-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_11-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution" xr:uid="{F3137D8A-9645-4484-96DD-6C580F0B2197}"/>
+    <hyperlink ref="B143" r:id="rId73" location="/./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/softmax?id=_1-%e4%bc%af%e5%8a%aa%e5%88%a9%e5%88%86%e5%b8%83bernouli-distribution%ef%bc%8c%e4%bc%bc%e7%84%b6%e5%87%bd%e6%95%b0%ef%bc%8c%e6%9c%80%e5%a4%a7%e6%9e%81%e5%a4%a7%e4%bc%bc%e7%84%b6%e4%bc%b0%e8%ae%a1maximum-likelihood-estimation-mle%ef%bc%8c%e9%80%bb%e8%be%91%e5%9b%9e%e5%bd%92logistic-regression-lr%e4%ba%8c%e5%88%86%e7%b1%bb%ef%bc%8csoftmax%e5%9b%9e%e5%bd%92%e5%a4%9a%e5%88%86%e7%b1%bb" xr:uid="{80BF9323-06A5-4C77-BE5E-7FB61BDEED31}"/>
+    <hyperlink ref="C142" r:id="rId74" location="introduction--a-simple-example" display="https://github.com/NVIDIA/runx - introduction--a-simple-example" xr:uid="{2B8C9ECB-EA2B-4D5E-AFE8-03D04BE0F887}"/>
+    <hyperlink ref="C141" r:id="rId75" location="/./notebook_code/pytorch?id=_162-%e7%9b%b4%e6%8e%a5%e4%bd%bf%e7%94%a8pytorch%e6%8f%90%e4%be%9b%e7%9a%84%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_162-%e7%9b%b4%e6%8e%a5%e4%bd%bf%e7%94%a8pytorch%e6%8f%90%e4%be%9b%e7%9a%84%e5%87%bd%e6%95%b0" xr:uid="{AE017B92-2094-4A42-9339-026C7599372A}"/>
+    <hyperlink ref="C140" r:id="rId76" location="/./notebook_code/pytorch?id=_161-%e8%87%aa%e5%ae%9a%e4%b9%89%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0%e3%80%81%e6%a8%a1%e5%9e%8b%e3%80%81%e6%8d%9f%e5%a4%b1%e5%87%bd%e6%95%b0%e5%8f%8a%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_161-%e8%87%aa%e5%ae%9a%e4%b9%89%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0%e3%80%81%e6%a8%a1%e5%9e%8b%e3%80%81%e6%8d%9f%e5%a4%b1%e5%87%bd%e6%95%b0%e5%8f%8a%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" xr:uid="{5F3076D0-A935-49B2-9898-B52E289FEC8D}"/>
+    <hyperlink ref="C139" r:id="rId77" location="/./notebook_code/pytorch?id=_16-%e7%94%a8pytorch%e6%9e%84%e5%bb%ba%e5%a4%9a%e5%b1%82%e6%84%9f%e7%9f%a5%e6%9c%ba%ef%bc%88%e5%a4%9a%e5%b1%82%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_16-%e7%94%a8pytorch%e6%9e%84%e5%bb%ba%e5%a4%9a%e5%b1%82%e6%84%9f%e7%9f%a5%e6%9c%ba%ef%bc%88%e5%a4%9a%e5%b1%82%e7%a5%9e%e7%bb%8f%e7%bd%91%e7%bb%9c%ef%bc%89" xr:uid="{981EBEA8-74A0-4516-8568-FC2933A086B8}"/>
+    <hyperlink ref="C138" r:id="rId78" location="/./notebook_code/pytorch?id=_15-%e8%87%aa%e5%8a%a8%e6%b1%82%e6%a2%af%e5%ba%a6gradient" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_15-%e8%87%aa%e5%8a%a8%e6%b1%82%e6%a2%af%e5%ba%a6gradient" xr:uid="{138EBF31-E8A5-4BF9-9CC6-C2848744B5CB}"/>
+    <hyperlink ref="C137" r:id="rId79" location="/./notebook_code/pytorch?id=_14-%e5%89%8d%e5%90%91%e6%ad%a3%e5%90%91%e4%bc%a0%e6%92%adforward-propagation%e4%b8%8e%e5%90%8e%e5%90%91%ef%bc%88%e5%8f%8d%e5%90%91%ef%bc%89%e4%bc%a0%e6%92%adback-propagation" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_14-%e5%89%8d%e5%90%91%e6%ad%a3%e5%90%91%e4%bc%a0%e6%92%adforward-propagation%e4%b8%8e%e5%90%8e%e5%90%91%ef%bc%88%e5%8f%8d%e5%90%91%ef%bc%89%e4%bc%a0%e6%92%adback-propagation" xr:uid="{043CFB03-0592-4BFA-B3E9-0E55F82593C8}"/>
+    <hyperlink ref="C136" r:id="rId80" location="/./notebook_code/pytorch?id=_13-%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0activation-function" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_13-%e6%bf%80%e6%b4%bb%e5%87%bd%e6%95%b0activation-function" xr:uid="{7F6B7120-7223-43B1-AA69-8E6E1B870139}"/>
+    <hyperlink ref="C135" r:id="rId81" location="/./notebook_code/pytorch?id=_12-%e5%be%ae%e7%a7%af%e5%88%86-%e9%93%be%e5%bc%8f%e6%b3%95%e5%88%99chain-rule" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_12-%e5%be%ae%e7%a7%af%e5%88%86-%e9%93%be%e5%bc%8f%e6%b3%95%e5%88%99chain-rule" xr:uid="{4C06DBAB-0A38-4C54-9660-F2E9546F6CFC}"/>
+    <hyperlink ref="C134" r:id="rId82" location="/./notebook_code/pytorch?id=_11-%e5%bc%a0%e9%87%8ftensor" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/pytorch?id=_11-%e5%bc%a0%e9%87%8ftensor" xr:uid="{C1AD26B9-2D19-40A2-A808-CD5E7E346CDB}"/>
+    <hyperlink ref="B128:B133" r:id="rId83" location="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" display="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" xr:uid="{FA8FF9E4-835C-4B6E-941A-39BBE8FD1EB1}"/>
+    <hyperlink ref="C133" r:id="rId84" location="/./notebook_code/bow_decisionTrees?id=_133-%e5%b5%8c%e5%85%a5%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8%e5%88%b0%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_133-%e5%b5%8c%e5%85%a5%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8%e5%88%b0%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0" xr:uid="{D9FD11AD-65ED-4080-8236-6BCCDE293C40}"/>
+    <hyperlink ref="C132" r:id="rId85" location="/./notebook_code/bow_decisionTrees?id=_132-%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_132-%e5%9b%be%e5%83%8f%e8%af%86%e5%88%ab%e5%99%a8" xr:uid="{669820F5-52F0-43C2-8431-440937F29977}"/>
+    <hyperlink ref="C131" r:id="rId86" location="/./notebook_code/bow_decisionTrees?id=_13-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_13-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8" xr:uid="{6851F357-2FB1-400C-88C0-4F2D54966D5C}"/>
+    <hyperlink ref="C130" r:id="rId87" location="/./notebook_code/bow_decisionTrees?id=_122-%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_122-%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89" xr:uid="{458D4927-3237-4C0D-AF23-B847351F092F}"/>
+    <hyperlink ref="C129" r:id="rId88" location="/cross_val_score" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /cross_val_score" xr:uid="{E6F4D1F6-2404-4BBE-8DB8-F3218091AFD1}"/>
+    <hyperlink ref="C128" r:id="rId89" location="/./notebook_code/bow_decisionTrees?id=_121-%e5%86%b3%e7%ad%96%e6%a0%91" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_121-%e5%86%b3%e7%ad%96%e6%a0%91" xr:uid="{9B231390-E1E0-428F-A570-088231C871C8}"/>
+    <hyperlink ref="C127" r:id="rId90" location="/./notebook_code/bow_decisionTrees?id=_11-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%e4%b8%8e%e6%9e%84%e5%bb%ba%e5%9b%be%e5%83%8f%e6%98%a0%e5%b0%84%e7%89%b9%e5%be%81" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/bow_decisionTrees?id=_11-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%e4%b8%8e%e6%9e%84%e5%bb%ba%e5%9b%be%e5%83%8f%e6%98%a0%e5%b0%84%e7%89%b9%e5%be%81" xr:uid="{1624FF41-3259-4417-8AD5-E89242FC8D90}"/>
+    <hyperlink ref="B127" r:id="rId91" location="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" display="/./notebook_code/bow_decisionTrees?id=_1-%e8%a7%86%e8%a7%89%e8%af%8d%e8%a2%8b%ef%bc%88bow%ef%bc%89%ef%bc%8c%e5%86%b3%e7%ad%96%e6%a0%91%ef%bc%88decision-trees%ef%bc%89-gt%e9%9a%8f%e6%9c%ba%e6%a3%ae%e6%9e%97%ef%bc%88random-forests%ef%bc%89%ef%bc%8c%e4%ba%a4%e5%8f%89%e9%aa%8c%e8%af%81-cross_val_score%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9b%be%e5%83%8f%e5%88%86%e7%b1%bb_%e8%af%86%e5%88%ab%e5%99%a8%ef%bc%8c%e7%bd%91%e7%bb%9c%e5%ae%9e%e9%aa%8c%e5%b9%b3%e5%8f%b0%e6%9c%8d%e5%8a%a1%e5%99%a8%e7%ab%af%e9%83%a8%e7%bd%b2" xr:uid="{5EAF7573-AC93-46A1-866D-D0FE822D075A}"/>
+    <hyperlink ref="B120:B126" r:id="rId92" location="/./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" xr:uid="{BE9E306F-98B9-456C-AE65-0D4A9D91B295}"/>
+    <hyperlink ref="C126" r:id="rId93" location="/./notebook_code/sqlite?id=_144-%e5%ae%9a%e4%b9%89%e6%a8%a1%e6%9d%bf" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_144-%e5%ae%9a%e4%b9%89%e6%a8%a1%e6%9d%bf" xr:uid="{5D00A05F-0F10-4834-9EE2-D27EE6E360DB}"/>
+    <hyperlink ref="C125" r:id="rId94" location="/./notebook_code/sqlite?id=_143-%e5%ae%9a%e4%b9%89%e8%b7%af%e7%94%b1%e5%92%8c%e8%a7%86%e5%9b%be%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_143-%e5%ae%9a%e4%b9%89%e8%b7%af%e7%94%b1%e5%92%8c%e8%a7%86%e5%9b%be%e5%87%bd%e6%95%b0" xr:uid="{52A359E5-7955-4B19-AB7B-5802C0B7A705}"/>
+    <hyperlink ref="C124" r:id="rId95" location="/./notebook_code/sqlite?id=_142-%e5%ae%9a%e4%b9%89sqlite%e8%a1%a8%e7%bb%93%e6%9e%84%ef%bc%8c%e5%86%99%e5%85%a5%e5%9b%be%e5%83%8f%e4%bf%a1%e6%81%af" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_142-%e5%ae%9a%e4%b9%89sqlite%e8%a1%a8%e7%bb%93%e6%9e%84%ef%bc%8c%e5%86%99%e5%85%a5%e5%9b%be%e5%83%8f%e4%bf%a1%e6%81%af" xr:uid="{3C7D3891-8F33-4174-B9AB-24C549C9DBB7}"/>
+    <hyperlink ref="C123" r:id="rId96" location="/./notebook_code/sqlite?id=_141-%e9%85%8d%e7%bd%ae%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e8%93%9d%e6%9c%ac" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_141-%e9%85%8d%e7%bd%ae%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e8%93%9d%e6%9c%ac" xr:uid="{2CEB1C2A-810B-4D4D-B61C-46939B2E315F}"/>
+    <hyperlink ref="C122" r:id="rId97" location="/./notebook_code/sqlite?id=_14-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e9%97%ae%e5%8d%b7%e8%b0%83%e7%a0%94" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_14-%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb%e9%97%ae%e5%8d%b7%e8%b0%83%e7%a0%94" xr:uid="{4C7978BE-4880-4435-B863-ADEE6BE491CE}"/>
+    <hyperlink ref="C121" r:id="rId98" location="/./notebook_code/sqlite?id=_13-flask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_13-flask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0" xr:uid="{929FFA04-5E47-4C5D-8107-CC4630DDDC81}"/>
+    <hyperlink ref="C120" r:id="rId99" location="/./notebook_code/sqlite?id=_12-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e8%a1%a8%e9%97%b4%e5%85%b3%e7%b3%bb%e5%a4%9a%e8%a1%a8%e5%85%b3%e8%81%94" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_12-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e8%a1%a8%e9%97%b4%e5%85%b3%e7%b3%bb%e5%a4%9a%e8%a1%a8%e5%85%b3%e8%81%94" xr:uid="{784EDFF1-D970-4D71-8069-35C379164E64}"/>
+    <hyperlink ref="C119" r:id="rId100" location="/./notebook_code/sqlite?id=_11-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e5%9f%ba%e7%a1%80" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_11-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93-%e5%9f%ba%e7%a1%80" xr:uid="{94B0DEA4-899B-4D13-96FB-1FF17C1C4063}"/>
+    <hyperlink ref="B119" r:id="rId101" location="/./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/sqlite?id=_1-sqlite%e6%95%b0%e6%8d%ae%e5%ba%93%ef%bc%8cflask-%e6%9e%84%e5%bb%ba%e5%ae%9e%e9%aa%8c%e7%94%a8%e7%bd%91%e7%bb%9c%e5%ba%94%e7%94%a8%e5%b9%b3%e5%8f%b0%ef%bc%8c%e9%80%86%e5%90%91%e5%b7%a5%e7%a8%8b%ef%bc%8c%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5-%e5%9f%ba%e4%ba%8e%e5%9b%be%e5%83%8f%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e7%b1%bb" xr:uid="{CBF5E6DD-EF7A-4344-957A-C37E6DD4AE6B}"/>
+    <hyperlink ref="B115:B118" r:id="rId102" location="/./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" xr:uid="{D8CDDEEF-1025-4627-B1C3-79F5EDD08E2B}"/>
+    <hyperlink ref="C118" r:id="rId103" display="http://www.cvlibs.net/datasets/kitti/index.php" xr:uid="{1181847F-6905-4AFD-B03C-0F05C55DC25F}"/>
+    <hyperlink ref="C117" r:id="rId104" location="/./notebook_code/openCV?id=_13-kitti%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_13-kitti%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" xr:uid="{F6B548E8-B871-42A7-89C3-66C0154E8056}"/>
+    <hyperlink ref="C116" r:id="rId105" location="/./notebook_code/openCV?id=_122-%e7%89%b9%e5%be%81%e5%8c%b9%e9%85%8d" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_122-%e7%89%b9%e5%be%81%e5%8c%b9%e9%85%8d" xr:uid="{27B16211-3C5E-4777-93FD-CEA7F47FDC57}"/>
+    <hyperlink ref="C115" r:id="rId106" location="/./notebook_code/openCV?id=_12-%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96-%e5%b0%ba%e5%ba%a6%e4%b8%8d%e5%8f%98%e7%89%b9%e5%be%81%e8%bd%ac%e6%8d%a2sift-scale-invariant-feature-transform%ef%bc%8cstar%e7%89%b9%e5%be%81%e6%a3%80%e6%b5%8b%e5%99%a8%ef%bc%8c%e5%9b%be%e5%83%8f%e5%8c%b9%e9%85%8d" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_12-%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96-%e5%b0%ba%e5%ba%a6%e4%b8%8d%e5%8f%98%e7%89%b9%e5%be%81%e8%bd%ac%e6%8d%a2sift-scale-invariant-feature-transform%ef%bc%8cstar%e7%89%b9%e5%be%81%e6%a3%80%e6%b5%8b%e5%99%a8%ef%bc%8c%e5%9b%be%e5%83%8f%e5%8c%b9%e9%85%8d" xr:uid="{732A9A14-81C9-4A83-B119-314C6E65D3F8}"/>
+    <hyperlink ref="C114" r:id="rId107" location="/./notebook_code/openCV?id=_11-opencv%e8%af%bb%e5%8f%96%e5%9b%be%e5%83%8f%e4%b8%8e%e5%9b%be%e5%83%8f%e5%a4%84%e7%90%86%e7%a4%ba%e4%be%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_11-opencv%e8%af%bb%e5%8f%96%e5%9b%be%e5%83%8f%e4%b8%8e%e5%9b%be%e5%83%8f%e5%a4%84%e7%90%86%e7%a4%ba%e4%be%8b" xr:uid="{9AE21EB2-9EE2-4C5A-97DC-F365DD44200E}"/>
+    <hyperlink ref="B114" r:id="rId108" location="/./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/openCV?id=_1-opencv-%e8%ae%a1%e7%ae%97%e6%9c%ba%e8%a7%86%e8%a7%89%ef%bc%8c%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96%ef%bc%8c%e5%b0%ba%e5%ba%a6%e7%a9%ba%e9%97%b4%ef%bc%88scale-space%ef%bc%89%ef%bc%8c%e5%8a%a8%e6%80%81%e8%a1%97%e6%99%af%e8%a7%86%e8%a7%89%e6%84%9f%e7%9f%a5" xr:uid="{99ADF8CE-35F3-4ADE-A700-1003ADC9D777}"/>
+    <hyperlink ref="B104:B113" r:id="rId109" location="/./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" xr:uid="{73DF3950-BDBC-4AEF-9EE5-B9263506D2C3}"/>
+    <hyperlink ref="C113" r:id="rId110" location="/./notebook_code/urban_lifeCircle?id=_134-%e4%bf%a1%e6%81%af%e7%86%b5%e5%92%8c%e5%9d%87%e8%a1%a1%e5%ba%a6%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_134-%e4%bf%a1%e6%81%af%e7%86%b5%e5%92%8c%e5%9d%87%e8%a1%a1%e5%ba%a6%e5%88%86%e6%9e%90" xr:uid="{B36C93EC-9EB5-40E0-9781-4BC101636F04}"/>
+    <hyperlink ref="C112" r:id="rId111" location="/./notebook_code/urban_lifeCircle?id=_133-%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e5%9b%be%e8%a1%a8%e6%8b%bc%e5%90%88%ef%bc%8c%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e7%a9%ba%e9%97%b4%e5%8f%98%e5%8c%96%e7%89%b9%e5%be%81%e3%80%82" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_133-%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e5%9b%be%e8%a1%a8%e6%8b%bc%e5%90%88%ef%bc%8c%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e4%b8%9a%e6%80%81%e7%bb%93%e6%9e%84%e7%a9%ba%e9%97%b4%e5%8f%98%e5%8c%96%e7%89%b9%e5%be%81%e3%80%82" xr:uid="{4C963D1F-AC08-4955-9C31-C3AAE4611D3D}"/>
+    <hyperlink ref="C111" r:id="rId112" location="/./notebook_code/urban_lifeCircle?id=_132-%e6%9b%b2%e7%ba%bf%e6%8b%90%e7%82%b9%e4%b8%8e%e5%85%b3%e9%94%ae%e5%b1%82%e7%ba%a7" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_132-%e6%9b%b2%e7%ba%bf%e6%8b%90%e7%82%b9%e4%b8%8e%e5%85%b3%e9%94%ae%e5%b1%82%e7%ba%a7" xr:uid="{76EAFA74-426A-42EF-A882-51629DF9F70D}"/>
+    <hyperlink ref="C110" r:id="rId113" location="/./notebook_code/urban_lifeCircle?id=_131-%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e4%b8%8e%e4%b8%9a%e6%80%81%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84%e8%ae%a1%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_131-%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e4%b8%8e%e4%b8%9a%e6%80%81%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84%e8%ae%a1%e7%ae%97" xr:uid="{76445D93-243F-4470-8A1D-FB974FE9D871}"/>
+    <hyperlink ref="C109" r:id="rId114" location="/./notebook_code/urban_lifeCircle?id=_13-%e5%9f%ba%e4%ba%8e%e7%99%be%e5%ba%a6poi%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e5%b1%82%e7%ba%a7%e4%b8%8b%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_13-%e5%9f%ba%e4%ba%8e%e7%99%be%e5%ba%a6poi%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%e5%b1%82%e7%ba%a7%e4%b8%8b%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%e7%9a%84%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e7%bb%93%e6%9e%84" xr:uid="{BFEB9D98-307F-40A3-82FB-789FD56DCE56}"/>
+    <hyperlink ref="C108" r:id="rId115" location="/./notebook_code/urban_lifeCircle?id=_123-%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1covariance-estimators" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_123-%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1covariance-estimators" xr:uid="{29D62C55-D94B-48B4-9CF4-FFD54FE2F9E1}"/>
+    <hyperlink ref="C107" r:id="rId116" location="/./notebook_code/urban_lifeCircle?id=_122-%ef%bc%88%e5%8d%a1%e6%96%b9%ef%bc%89%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_122-%ef%bc%88%e5%8d%a1%e6%96%b9%ef%bc%89%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c" xr:uid="{19BAC2F2-40AB-4DFF-A053-1B4B9133DC01}"/>
+    <hyperlink ref="C105" r:id="rId117" location="/./notebook_code/urban_lifeCircle?id=_121-%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83chi-square-distribution%cf%87%c2%b2-distribution" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_121-%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83chi-square-distribution%cf%87%c2%b2-distribution" xr:uid="{7863D845-CB1B-4357-8EF1-5BAAF9D162B8}"/>
+    <hyperlink ref="C104" r:id="rId118" location="/./notebook_code/urban_lifeCircle?id=_112-affinity-propagation%ef%bc%88ap%ef%bc%89%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_112-affinity-propagation%ef%bc%88ap%ef%bc%89%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" xr:uid="{616D89A5-17E3-4A31-BC80-7F2DDF9D1F44}"/>
+    <hyperlink ref="C103" r:id="rId119" location="/./notebook_code/urban_lifeCircle?id=_111-dbscan%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_111-dbscan%e8%81%9a%e7%b1%bb%e7%ae%97%e6%b3%95" xr:uid="{E7442EC3-79E9-4EB2-ABE1-D62CE4816F75}"/>
+    <hyperlink ref="B103" r:id="rId120" location="/./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/urban_lifeCircle?id=_1%e5%9f%8e%e5%b8%82%e7%94%9f%e6%b4%bb%e5%9c%88%ef%bc%8cdbscan%e8%bf%9e%e7%bb%ad%e8%b7%9d%e7%a6%bb%e8%81%9a%e7%b1%bb%ef%bc%8c%e5%8d%a1%e6%96%b9%e5%88%86%e5%b8%83%e5%8f%8a%e7%8b%ac%e7%ab%8b%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%8c%e5%8d%8f%e6%96%b9%e5%b7%ae%e4%bc%b0%e8%ae%a1%ef%bc%8c%e4%bf%a1%e6%81%af%e7%86%b5%e4%b8%8e%e5%9d%87%e8%a1%a1%e5%ba%a6" xr:uid="{FFC2A7A0-2A0A-46A7-8D07-1F3B743AE698}"/>
+    <hyperlink ref="B97:B102" r:id="rId121" location="/./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" xr:uid="{A96A01BD-9020-4DE0-857A-52F0E8C88A14}"/>
+    <hyperlink ref="C102" r:id="rId122" location="/./notebook_code/clustering_cityColor?id=_13-%e8%81%9a%e7%b1%bb%e5%9b%be%e5%83%8f%e4%b8%bb%e9%a2%98%e8%89%b2" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_13-%e8%81%9a%e7%b1%bb%e5%9b%be%e5%83%8f%e4%b8%bb%e9%a2%98%e8%89%b2" xr:uid="{9D9E31AD-B7CE-475D-95FD-C66E5CCA7E78}"/>
+    <hyperlink ref="C101" r:id="rId123" location="/./notebook_code/clustering_cityColor?id=_12-%e8%81%9a%e7%b1%bbclustering" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_12-%e8%81%9a%e7%b1%bbclustering" xr:uid="{AED1F5B7-08E2-487C-A32B-669381DD579A}"/>
+    <hyperlink ref="C100" r:id="rId124" location="/./notebook_code/clustering_cityColor?id=_113-rgb%e8%89%b2%e5%bd%a9%e7%9a%84%e4%b8%89%e7%bb%b4%e5%9b%be%e7%a4%ba" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_113-rgb%e8%89%b2%e5%bd%a9%e7%9a%84%e4%b8%89%e7%bb%b4%e5%9b%be%e7%a4%ba" xr:uid="{B95EE233-3ECE-4541-9163-9007CFFA4EA2}"/>
+    <hyperlink ref="C99" r:id="rId125" location="/./notebook_code/clustering_cityColor?id=_112-exifexchangeable-image-file-format-%e5%8f%af%e4%ba%a4%e6%8d%a2%e5%9b%be%e5%83%8f%e6%a0%bc%e5%bc%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_112-exifexchangeable-image-file-format-%e5%8f%af%e4%ba%a4%e6%8d%a2%e5%9b%be%e5%83%8f%e6%a0%bc%e5%bc%8f" xr:uid="{3AE33499-7EF3-488A-A29A-EEB0F14F8893}"/>
+    <hyperlink ref="C96" r:id="rId126" location="/./notebook_code/clustering_cityColor?id=_111-%e8%b0%83%e7%a0%94%e5%9b%be%e5%83%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_111-%e8%b0%83%e7%a0%94%e5%9b%be%e5%83%8f" xr:uid="{B16D6296-A02B-4334-90D8-6ADC6C5187C2}"/>
+    <hyperlink ref="B96" r:id="rId127" location="/./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/clustering_cityColor?id=_1%e8%81%9a%e7%b1%bb%e4%b8%8e%e5%9f%8e%e5%b8%82%e8%89%b2%e5%bd%a9" xr:uid="{5717CF1D-4FB9-4ABB-899E-75ED19F7CB7A}"/>
+    <hyperlink ref="B90:B95" r:id="rId128" location="/./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{725E822A-4B07-4E0A-828D-5C8C6B63EE63}"/>
+    <hyperlink ref="C95" r:id="rId129" location="/./notebook_code/calculus_code_graph?id=_14-%e5%81%8f%e5%be%ae%e5%88%86%ef%bc%88%e5%81%8f%e5%af%bc%e6%95%b0-partial-derivative%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_14-%e5%81%8f%e5%be%ae%e5%88%86%ef%bc%88%e5%81%8f%e5%af%bc%e6%95%b0-partial-derivative%ef%bc%89" xr:uid="{6BA6A29B-058B-43B8-9564-4DE9B4E5E7D2}"/>
+    <hyperlink ref="C94" r:id="rId130" location="/./notebook_code/calculus_code_graph?id=_13-%e6%b3%b0%e5%8b%92%e5%b1%95%e5%bc%80%e5%bc%8f%ef%bc%88taylor-expansion%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_13-%e6%b3%b0%e5%8b%92%e5%b1%95%e5%bc%80%e5%bc%8f%ef%bc%88taylor-expansion%ef%bc%89" xr:uid="{3A745F69-30E4-48A0-9BD8-63E9BA99F0D5}"/>
+    <hyperlink ref="C93" r:id="rId131" location="/./notebook_code/calculus_code_graph?id=_12-%e7%a7%af%e5%88%86integrate" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_12-%e7%a7%af%e5%88%86integrate" xr:uid="{2583DCDD-432C-4155-A38D-A43D37A5C4CC}"/>
+    <hyperlink ref="C89" r:id="rId132" location="/./notebook_code/calculus_code_graph?id=_11-%e5%af%bc%e6%95%b0%ef%bc%88derivative%ef%bc%89%e4%b8%8e%e5%be%ae%e5%88%86%ef%bc%88differentiation%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_11-%e5%af%bc%e6%95%b0%ef%bc%88derivative%ef%bc%89%e4%b8%8e%e5%be%ae%e5%88%86%ef%bc%88differentiation%ef%bc%89" xr:uid="{B6FFA688-DD4D-49B5-AFE8-C442F523C536}"/>
+    <hyperlink ref="B89" r:id="rId133" location="/./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/calculus_code_graph?id=_1-%e5%be%ae%e7%a7%af%e5%88%86%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{495C7603-6458-4A78-8400-D1D79DF5DCCB}"/>
+    <hyperlink ref="B85:B88" r:id="rId134" location="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" display="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" xr:uid="{8378C2CF-4E67-4964-ADE3-09E2FEC2BECA}"/>
+    <hyperlink ref="C88" r:id="rId135" location="/./notebook_code/convolution_SIR?id=_13-%e5%8d%b7%e7%a7%af%e6%89%a9%e6%95%a3%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e6%ad%a5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_13-%e5%8d%b7%e7%a7%af%e6%89%a9%e6%95%a3%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e6%ad%a5" xr:uid="{AF2CB802-80D2-4C87-A33E-0D9624F18CF1}"/>
+    <hyperlink ref="C87" r:id="rId136" location="/./notebook_code/convolution_SIR?id=_12-sir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_12-sir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" xr:uid="{7C15D2EA-DAB6-492A-A905-9FFD8A14F167}"/>
+    <hyperlink ref="C86" r:id="rId137" location="/./notebook_code/convolution_SIR?id=_112-%e4%ba%8c%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_112-%e4%ba%8c%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e5%9b%be%e5%83%8f%e7%89%b9%e5%be%81%e6%8f%90%e5%8f%96" xr:uid="{95249C3E-B1F9-422F-83DA-2C807FA47A2B}"/>
+    <hyperlink ref="C85" r:id="rId138" location="/./notebook_code/convolution_SIR?id=_111-%e4%b8%80%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e6%9b%b2%e7%ba%bf%e5%88%86%e5%89%b2" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_111-%e4%b8%80%e7%bb%b4%e5%8d%b7%e7%a7%af%e4%b8%8e%e6%9b%b2%e7%ba%bf%e5%88%86%e5%89%b2" xr:uid="{3D33385D-951F-4870-B07D-B445CC865056}"/>
+    <hyperlink ref="C84" r:id="rId139" location="/./notebook_code/convolution_SIR?id=_11-%e5%8d%b7%e7%a7%af" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/convolution_SIR?id=_11-%e5%8d%b7%e7%a7%af" xr:uid="{E429CBAA-D52C-48A1-ABBC-77020652624F}"/>
+    <hyperlink ref="B84" r:id="rId140" location="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" display="/./notebook_code/convolution_SIR?id=_1-%e5%8d%b7%e7%a7%af%ef%bc%8csir%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b%ef%bc%8c%e6%88%90%e6%9c%ac%e6%a0%85%e6%a0%bc%e4%b8%8e%e7%89%a9%e7%a7%8d%e6%95%a3%e5%b8%83%ef%bc%8csir%e7%a9%ba%e9%97%b4%e4%bc%a0%e6%92%ad%e6%a8%a1%e5%9e%8b" xr:uid="{9336FC07-843B-4FB1-87E3-57E56D1886AA}"/>
+    <hyperlink ref="B80:B83" r:id="rId141" location="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" display="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" xr:uid="{9D09292B-F3EA-4070-9DF9-DC934DE85150}"/>
+    <hyperlink ref="C83" r:id="rId142" location="/./notebook_code/lidarData?id=_124-%e5%8c%ba%e5%9f%9f%e7%bb%9f%e8%ae%a1%ef%bc%8c%e8%ae%a1%e7%ae%97%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_124-%e5%8c%ba%e5%9f%9f%e7%bb%9f%e8%ae%a1%ef%bc%8c%e8%ae%a1%e7%ae%97%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6" xr:uid="{165695A7-D81B-47D5-841C-1B8A8D2347E3}"/>
+    <hyperlink ref="C82" r:id="rId143" location="/./notebook_code/lidarData?id=_12-%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_12-%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96" xr:uid="{CC2E2758-9109-497C-8F04-F9F6355406BF}"/>
+    <hyperlink ref="C81" r:id="rId144" location="/./notebook_code/lidarData?id=_113%e6%89%b9%e9%87%8f%e5%a4%84%e7%90%86las%e7%82%b9%e4%ba%91%e5%8d%95%e5%85%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_113%e6%89%b9%e9%87%8f%e5%a4%84%e7%90%86las%e7%82%b9%e4%ba%91%e5%8d%95%e5%85%83" xr:uid="{B3D37AD5-855F-462E-8D15-5F2F5116F9E7}"/>
+    <hyperlink ref="C80" r:id="rId145" location="/./notebook_code/lidarData?id=_112-%e5%bb%ba%e7%ab%8bdsmdigital-surface-model%ef%bc%8c%e4%b8%8e%e5%88%86%e7%b1%bb%e6%a0%85%e6%a0%bc" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_112-%e5%bb%ba%e7%ab%8bdsmdigital-surface-model%ef%bc%8c%e4%b8%8e%e5%88%86%e7%b1%bb%e6%a0%85%e6%a0%bc" xr:uid="{0B208F29-636E-4805-AF00-2662EB49FE1A}"/>
+    <hyperlink ref="C79" r:id="rId146" location="/./notebook_code/lidarData?id=_11-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86%ef%bc%88las%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/lidarData?id=_11-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86%ef%bc%88las%ef%bc%89" xr:uid="{D3BA6D7F-580C-43B2-8A08-0A0124B270E0}"/>
+    <hyperlink ref="B79" r:id="rId147" location="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" display="/./notebook_code/lidarData?id=_1-%e7%82%b9%e4%ba%91%e6%95%b0%e6%8d%ae%ef%bc%88%e6%bf%80%e5%85%89%e9%9b%b7%e8%be%be%ef%bc%89%e5%a4%84%e7%90%86%e5%88%86%e7%b1%bb%e6%95%b0%e6%8d%ae%ef%bc%8cdsm%ef%bc%8c%e5%bb%ba%e7%ad%91%e9%ab%98%e5%ba%a6%e6%8f%90%e5%8f%96%ef%bc%8c%e6%8f%92%e5%80%bc" xr:uid="{0475A257-3024-4563-AC3D-CC71C0FA2D13}"/>
+    <hyperlink ref="B76:B78" r:id="rId148" location="/./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" xr:uid="{DD741292-5744-475A-A133-D8288CBAAF2A}"/>
+    <hyperlink ref="C78" r:id="rId149" location="/./notebook_code/interpretation_GUI?id=_132-%e5%88%86%e7%b1%bb%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_132-%e5%88%86%e7%b1%bb%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" xr:uid="{5973A622-8138-4B18-90DB-2F4E9A7F07AC}"/>
+    <hyperlink ref="C77" r:id="rId150" location="/./notebook_code/interpretation_GUI?id=_13-%e9%87%87%e6%a0%b7%e4%ba%a4%e4%ba%92%e6%93%8d%e4%bd%9c%e5%b9%b3%e5%8f%b0%e7%9a%84%e5%bb%ba%e7%ab%8b%ef%bc%8c%e4%b8%8e%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_13-%e9%87%87%e6%a0%b7%e4%ba%a4%e4%ba%92%e6%93%8d%e4%bd%9c%e5%b9%b3%e5%8f%b0%e7%9a%84%e5%bb%ba%e7%ab%8b%ef%bc%8c%e4%b8%8e%e7%b2%be%e5%ba%a6%e8%ae%a1%e7%ae%97" xr:uid="{5FB18194-5837-4807-8794-A89A80EAE841}"/>
+    <hyperlink ref="C76" r:id="rId151" location="/./notebook_code/interpretation_GUI?id=_12-%e8%ae%a1%e7%ae%97ndvi%ef%bc%8c%e4%ba%a4%e4%ba%92%e5%9b%be%e5%83%8f%e4%b8%8e%e8%a7%a3%e8%af%91" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_12-%e8%ae%a1%e7%ae%97ndvi%ef%bc%8c%e4%ba%a4%e4%ba%92%e5%9b%be%e5%83%8f%e4%b8%8e%e8%a7%a3%e8%af%91" xr:uid="{0BDD5D3B-FA91-4DE3-9307-02D48F68BB9E}"/>
+    <hyperlink ref="C75" r:id="rId152" location="/./notebook_code/interpretation_GUI?id=_11-%e5%bd%b1%e5%83%8f%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_11-%e5%bd%b1%e5%83%8f%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{7B123801-1222-4B99-A8B3-1AA51198CB37}"/>
+    <hyperlink ref="B75" r:id="rId153" location="/./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/interpretation_GUI?id=_1-%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e8%a7%a3%e8%af%91%ef%bc%88%e5%9f%ba%e4%ba%8endvi%ef%bc%89%ef%bc%8c%e5%bb%ba%e7%ab%8b%e9%87%87%e6%a0%b7%e5%b7%a5%e5%85%b7%ef%bc%88gui_tkinter%ef%bc%89%ef%bc%8c%e6%b7%b7%e6%b7%86%e7%9f%a9%e9%98%b5" xr:uid="{AB6896D8-1648-4651-9A59-BFA58707360A}"/>
+    <hyperlink ref="B71:B74" r:id="rId154" location="/./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" xr:uid="{20942B0D-79D7-41C3-BFB1-5A69E62BCEB4}"/>
+    <hyperlink ref="C74" r:id="rId155" location="/./notebook_code/landsat_pca?id=_13-%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%88digital-elevation%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_13-%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%88digital-elevation%ef%bc%89" xr:uid="{1DE3CEEA-02B6-4B16-A7FD-BEBEF57990EA}"/>
+    <hyperlink ref="C73" r:id="rId156" location="/./notebook_code/landsat_pca?id=_123-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e6%b3%a2%e6%ae%b5%e7%9a%84pca%e9%99%8d%e7%bb%b4%e4%b8%8ergb%e6%98%be%e7%a4%ba" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_123-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e6%b3%a2%e6%ae%b5%e7%9a%84pca%e9%99%8d%e7%bb%b4%e4%b8%8ergb%e6%98%be%e7%a4%ba" xr:uid="{D8ECCF8C-D25E-439B-843A-53E9A091F5B1}"/>
+    <hyperlink ref="C72" r:id="rId157" location="/./notebook_code/landsat_pca?id=_122-%e4%b8%89%e7%bb%b4%e5%ba%a6pca" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_122-%e4%b8%89%e7%bb%b4%e5%ba%a6pca" xr:uid="{40926408-1840-4CDF-829D-D97326CC0C83}"/>
+    <hyperlink ref="C71" r:id="rId158" location="/./notebook_code/landsat_pca?id=_12-%e4%b8%bb%e6%88%90%e5%88%86%e5%88%86%e6%9e%90%ef%bc%88principal-components%ef%bc%8cpca%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_12-%e4%b8%bb%e6%88%90%e5%88%86%e5%88%86%e6%9e%90%ef%bc%88principal-components%ef%bc%8cpca%ef%bc%89" xr:uid="{1C370319-0611-477B-AA23-0374BF9D11C5}"/>
+    <hyperlink ref="C70" r:id="rId159" location="/./notebook_code/landsat_pca?id=_11-landsat%e5%9c%b0%e7%90%86%e4%bf%a1%e6%81%af%e8%af%bb%e5%8f%96%ef%bc%8c%e8%a3%81%e5%88%87%ef%bc%8c%e8%9e%8d%e5%90%88%ef%bc%8c%e6%89%93%e5%8d%b0%e6%98%be%e7%a4%ba" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_11-landsat%e5%9c%b0%e7%90%86%e4%bf%a1%e6%81%af%e8%af%bb%e5%8f%96%ef%bc%8c%e8%a3%81%e5%88%87%ef%bc%8c%e8%9e%8d%e5%90%88%ef%bc%8c%e6%89%93%e5%8d%b0%e6%98%be%e7%a4%ba" xr:uid="{07A11722-CC59-4B2B-8A8D-BB0E41E655B0}"/>
+    <hyperlink ref="B70" r:id="rId160" location="/./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/landsat_pca?id=_1-landsat%e9%81%a5%e6%84%9f%e5%bd%b1%e5%83%8f%e5%a4%84%e7%90%86%ef%bc%8c%e6%95%b0%e5%ad%97%e9%ab%98%e7%a8%8b%ef%bc%8c%e4%b8%bb%e6%88%90%e6%88%90%e5%88%86%e5%88%86%e6%9e%90" xr:uid="{0F94FACC-B497-485B-8CAA-703DDCA2007A}"/>
+    <hyperlink ref="B59:B69" r:id="rId161" location="/./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{E0AB603A-44B3-425C-889C-392F93FED90F}"/>
+    <hyperlink ref="C69" r:id="rId162" location="/./notebook_code/linear_algebra?id=_14-%e7%89%b9%e5%be%81%e5%80%bc%e5%92%8c%e7%89%b9%e5%be%81%e5%90%91%e9%87%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_14-%e7%89%b9%e5%be%81%e5%80%bc%e5%92%8c%e7%89%b9%e5%be%81%e5%90%91%e9%87%8f" xr:uid="{C334FBA2-610B-40ED-9469-9E129C5A714D}"/>
+    <hyperlink ref="C68" r:id="rId163" location="/./notebook_code/linear_algebra?id=_133-%e7%a7%a9" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_133-%e7%a7%a9" xr:uid="{FD20F0F7-5787-492A-A4A8-5C245003B54A}"/>
+    <hyperlink ref="C67" r:id="rId164" location="/./notebook_code/linear_algebra?id=_132-%e7%89%b9%e6%ae%8a%e7%9a%84%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%ef%bc%88%e7%ba%bf%e6%80%a7%e5%8f%98%e6%8d%a2%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_132-%e7%89%b9%e6%ae%8a%e7%9a%84%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%ef%bc%88%e7%ba%bf%e6%80%a7%e5%8f%98%e6%8d%a2%ef%bc%89" xr:uid="{BA16C13C-D151-401B-8676-1F5BC08E083D}"/>
+    <hyperlink ref="C66" r:id="rId165" location="/./notebook_code/linear_algebra?id=_131-%e5%ae%9a%e4%b9%89%ef%bc%8c%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%e7%9a%84%e7%9f%a9%e9%98%b5%e8%ae%a1%e7%ae%97%e6%96%b9%e6%b3%95%ef%bc%8c%e5%83%8f" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_131-%e5%ae%9a%e4%b9%89%ef%bc%8c%e7%ba%bf%e6%80%a7%e6%98%a0%e5%b0%84%e7%9a%84%e7%9f%a9%e9%98%b5%e8%ae%a1%e7%ae%97%e6%96%b9%e6%b3%95%ef%bc%8c%e5%83%8f" xr:uid="{873679D4-E512-4156-9FB5-7FBAB68C5D53}"/>
+    <hyperlink ref="C61" r:id="rId166" location="/./notebook_code/linear_algebra?id=_121-%e5%90%91%e9%87%8f%e6%a6%82%e5%bf%b5%ef%bc%8c%e8%a1%a8%e8%be%be%e5%8f%8a%e8%bf%90%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_121-%e5%90%91%e9%87%8f%e6%a6%82%e5%bf%b5%ef%bc%8c%e8%a1%a8%e8%be%be%e5%8f%8a%e8%bf%90%e7%ae%97" xr:uid="{F83BEB17-5FB7-4038-95BB-CEE6BE751011}"/>
+    <hyperlink ref="C64" r:id="rId167" location="/./notebook_code/linear_algebra?id=_123-%e7%bb%b4%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_123-%e7%bb%b4%e6%95%b0" xr:uid="{81582EE2-FD45-4334-8AC0-DDB9C06ED88C}"/>
+    <hyperlink ref="C62" r:id="rId168" location="/./notebook_code/linear_algebra?id=_122-%e7%ba%bf%e6%80%a7%e6%97%a0%e5%85%b3" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_122-%e7%ba%bf%e6%80%a7%e6%97%a0%e5%85%b3" xr:uid="{FE5C764D-8010-4627-8259-B951B97ED611}"/>
+    <hyperlink ref="C60" r:id="rId169" location="/./notebook_code/linear_algebra?id=_112-%e7%89%b9%e6%ae%8a%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_112-%e7%89%b9%e6%ae%8a%e7%9f%a9%e9%98%b5" xr:uid="{70135257-1149-41C7-B2FF-1DB63CCE80E7}"/>
+    <hyperlink ref="C59" r:id="rId170" location="/./notebook_code/linear_algebra?id=_111-%e7%9f%a9%e9%98%b5%e7%9a%84%e8%bf%90%e7%ae%97" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_111-%e7%9f%a9%e9%98%b5%e7%9a%84%e8%bf%90%e7%ae%97" xr:uid="{BE122DC6-AB92-43EC-A919-1D97674738A4}"/>
+    <hyperlink ref="C58" r:id="rId171" location="/./notebook_code/linear_algebra?id=_11-%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_11-%e7%9f%a9%e9%98%b5" xr:uid="{FFEC343D-CCD0-4E90-94E5-ED593341AC46}"/>
+    <hyperlink ref="B58" r:id="rId172" location="/./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/linear_algebra?id=_1-%e7%ba%bf%e6%80%a7%e4%bb%a3%e6%95%b0%e5%9f%ba%e7%a1%80%e7%9a%84%e4%bb%a3%e7%a0%81%e8%a1%a8%e8%bf%b0" xr:uid="{6135D462-D88A-432E-9175-2EAE677A23A8}"/>
+    <hyperlink ref="B49:B57" r:id="rId173" location="/./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" xr:uid="{0CA1F6DF-8549-4539-9EB6-158A05218BD3}"/>
+    <hyperlink ref="C57" r:id="rId174" location="/./notebook_code/regression_publicHeath_grad?id=_143-%e7%94%a8sklearn%e5%ba%93%e6%8f%90%e4%be%9b%e7%9a%84sgdregressor%ef%bc%88-stochastic-gradient-descent%ef%bc%89%e9%9a%8f%e6%9c%ba%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%96%b9%e6%b3%95%e8%ae%ad%e7%bb%83%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_143-%e7%94%a8sklearn%e5%ba%93%e6%8f%90%e4%be%9b%e7%9a%84sgdregressor%ef%bc%88-stochastic-gradient-descent%ef%bc%89%e9%9a%8f%e6%9c%ba%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%96%b9%e6%b3%95%e8%ae%ad%e7%bb%83%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae" xr:uid="{BE97C28A-AC68-47C7-A7BD-36D34F72D23C}"/>
+    <hyperlink ref="C56" r:id="rId175" location="/./notebook_code/regression_publicHeath_grad?id=_141-%e6%a2%af%e5%ba%a6%ef%bc%8c%e5%be%ae%e5%88%86%e4%b8%8e%e5%af%bc%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_141-%e6%a2%af%e5%ba%a6%ef%bc%8c%e5%be%ae%e5%88%86%e4%b8%8e%e5%af%bc%e6%95%b0" xr:uid="{DB174DCA-A046-4C53-B1AF-0A2AC80FFF52}"/>
+    <hyperlink ref="C55" r:id="rId176" location="/./notebook_code/regression_publicHeath_grad?id=_14-%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95%ef%bc%88gradient-descent%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_14-%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95%ef%bc%88gradient-descent%ef%bc%89" xr:uid="{DD57192B-7975-4964-9C5B-9FBB721876B9}"/>
+    <hyperlink ref="C54" r:id="rId177" location="/./notebook_code/regression_publicHeath_grad?id=_134-%e6%ad%a3%e5%88%99%e5%8c%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_134-%e6%ad%a3%e5%88%99%e5%8c%96" xr:uid="{7A4B154A-89DD-4D5D-ABDC-F44399BF5DDB}"/>
+    <hyperlink ref="C53" r:id="rId178" location="/./notebook_code/regression_publicHeath_grad?id=_132-%e5%a4%9a%e9%a1%b9%e5%bc%8f%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_132-%e5%a4%9a%e9%a1%b9%e5%bc%8f%e5%9b%9e%e5%bd%92" xr:uid="{9E5799BE-B5A5-4651-9174-26A19154CF41}"/>
+    <hyperlink ref="C52" r:id="rId179" location="/./notebook_code/regression_publicHeath_grad?id=_13-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_13-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" xr:uid="{FA002E12-7FC0-4EAF-83DB-C8C48D1F7CE9}"/>
+    <hyperlink ref="C51" r:id="rId180" location="/./notebook_code/regression_publicHeath_grad?id=_123-%e7%89%b9%e5%be%81%e5%80%bc%e7%9a%84%e6%af%94%e4%be%8b%e7%bc%a9%e6%94%be%e6%a0%87%e5%87%86%e5%8c%96" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_123-%e7%89%b9%e5%be%81%e5%80%bc%e7%9a%84%e6%af%94%e4%be%8b%e7%bc%a9%e6%94%be%e6%a0%87%e5%87%86%e5%8c%96" xr:uid="{EFECF272-1DB6-4A01-8F7D-99EEC943BC29}"/>
+    <hyperlink ref="C50" r:id="rId181" location="/./notebook_code/regression_publicHeath_grad?id=_122-%e5%b9%b3%e5%9d%87%e7%bb%9d%e5%af%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-absolute-error-mae%ef%bc%89%e5%92%8c%e5%9d%87%e6%96%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-squared-error%ef%bc%8cmse%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_122-%e5%b9%b3%e5%9d%87%e7%bb%9d%e5%af%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-absolute-error-mae%ef%bc%89%e5%92%8c%e5%9d%87%e6%96%b9%e8%af%af%e5%b7%ae%ef%bc%88mean-squared-error%ef%bc%8cmse%ef%bc%89" xr:uid="{B83AFE6E-0AEB-4611-9CCF-F42407E5EAF6}"/>
+    <hyperlink ref="C49" r:id="rId182" location="/./notebook_code/regression_publicHeath_grad?id=_12-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84k-%e8%bf%91%e9%82%bb%e6%a8%a1%e5%9e%8b%ef%bc%88k-nearest-neighbors-algorithmk-nn%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_12-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84k-%e8%bf%91%e9%82%bb%e6%a8%a1%e5%9e%8b%ef%bc%88k-nearest-neighbors-algorithmk-nn%ef%bc%89" xr:uid="{6E4E2DDF-94F8-4808-8E2B-E6E50AA28C7A}"/>
+    <hyperlink ref="C48" r:id="rId183" location="/./notebook_code/regression_publicHeath_grad?id=_11-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_11-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" xr:uid="{0389FED0-0A16-4E66-89F4-ACF44CD41F4B}"/>
+    <hyperlink ref="B48" r:id="rId184" location="/./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression_publicHeath_grad?id=_1%e5%9b%9e%e5%bd%92%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%ef%bc%8c%e4%b8%8e%e6%a2%af%e5%ba%a6%e4%b8%8b%e9%99%8d%e6%b3%95" xr:uid="{A23F42A5-8C6C-49DD-8B10-2A0E3E1F91E9}"/>
+    <hyperlink ref="B35:B47" r:id="rId185" location="/./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" xr:uid="{C2E9EF5F-A00F-44D2-B06E-8AB3CFFCBBD7}"/>
+    <hyperlink ref="C47" r:id="rId186" location="/./notebook_code/regression?id=_136-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg-begin-inline-katexa_1-x_1-a_2-x_2-ldots-a_n-x_nbend-inline-katex-%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_136-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg-begin-inline-katexa_1-x_1-a_2-x_2-ldots-a_n-x_nbend-inline-katex-%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4" xr:uid="{9E2BC493-84BB-4AC6-9481-090D84996026}"/>
+    <hyperlink ref="C46" r:id="rId187" location="/./notebook_code/regression?id=_135-%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_135-%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c" xr:uid="{7FD94A2A-F817-49E0-BE33-6FFED888E060}"/>
+    <hyperlink ref="C45" r:id="rId188" location="/./notebook_code/regression?id=_134-%e7%a1%ae%e8%ae%a4%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_134-%e7%a1%ae%e8%ae%a4%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" xr:uid="{9EA480B7-A3C6-4F31-AAB2-D6E469AC6378}"/>
+    <hyperlink ref="C44" r:id="rId189" location="/./notebook_code/regression?id=_133-%e6%b1%82%e8%a7%a3%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_133-%e6%b1%82%e8%a7%a3%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" xr:uid="{A85FAC22-4347-49A6-AA40-BDE80E90D387}"/>
+    <hyperlink ref="C43" r:id="rId190" location="/./notebook_code/regression?id=_13-%e5%a4%9a%e5%85%83%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_13-%e5%a4%9a%e5%85%83%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" xr:uid="{EF902572-48C4-4FE4-BB92-EF0972BD60C3}"/>
+    <hyperlink ref="C42" r:id="rId191" location="/./notebook_code/regression?id=_125-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%e4%bc%b0%e8%ae%a1" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_125-%e6%80%bb%e4%bd%93%e5%9b%9e%e5%bd%92c194a9eg%e7%9a%84%e4%bc%b0%e8%ae%a1%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%e4%bc%b0%e8%ae%a1" xr:uid="{9A5F2195-6661-4ED7-A97A-C84451CEE397}"/>
+    <hyperlink ref="C41" r:id="rId192" location="/./notebook_code/regression?id=_124-%e5%9b%9e%e5%bd%92%e7%b3%bb%e6%95%b0%e7%9a%84%e6%a3%80%e9%aa%8c%ef%bc%88%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%89-f%e5%88%86%e5%b8%83%e4%b8%8e%e6%96%b9%e5%b7%ae%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_124-%e5%9b%9e%e5%bd%92%e7%b3%bb%e6%95%b0%e7%9a%84%e6%a3%80%e9%aa%8c%ef%bc%88%e5%9b%9e%e5%bd%92%e6%98%be%e8%91%97%e6%80%a7%e6%a3%80%e9%aa%8c%ef%bc%89-f%e5%88%86%e5%b8%83%e4%b8%8e%e6%96%b9%e5%b7%ae%e5%88%86%e6%9e%90" xr:uid="{A8347B2D-A1A3-4A24-B6C1-DF596D1C961A}"/>
+    <hyperlink ref="C40" r:id="rId193" location="/./notebook_code/regression?id=_123-%e7%a1%ae%e8%ae%a4%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_123-%e7%a1%ae%e8%ae%a4%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b%e7%9a%84%e7%b2%be%e5%ba%a6" xr:uid="{A11DE560-B211-4E66-8AA9-146A870F14E5}"/>
+    <hyperlink ref="C39" r:id="rId194" location="/./notebook_code/regression?id=_122%e6%b1%82%e8%a7%a3%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_122%e6%b1%82%e8%a7%a3%e5%9b%9e%e5%bd%92%e6%96%b9%e7%a8%8b" xr:uid="{4B211511-36FD-4F9B-A891-8D87C0AEFD9A}"/>
+    <hyperlink ref="C38" r:id="rId195" location="/./notebook_code/regression?id=_12-%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_12-%e7%ae%80%e5%8d%95%e7%ba%bf%e6%80%a7%e5%9b%9e%e5%bd%92" xr:uid="{F4EA2CD4-A7CB-4563-BFEA-8A8F0702C203}"/>
+    <hyperlink ref="C37" r:id="rId196" location="/./notebook_code/regression?id=_114-%e7%9f%a9%e9%98%b5" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_114-%e7%9f%a9%e9%98%b5" xr:uid="{25BFC592-9FE2-4AE3-A72F-A21BFA8BA8BF}"/>
+    <hyperlink ref="C36" r:id="rId197" location="/./notebook_code/regression?id=_113-%e5%be%ae%e5%88%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_113-%e5%be%ae%e5%88%86" xr:uid="{39777E53-5D91-4BB6-8C8C-D03E7B1B0F63}"/>
+    <hyperlink ref="C35" r:id="rId198" location="/./notebook_code/regression?id=_112-%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0%e4%b8%8e%e8%87%aa%e7%84%b6%e5%af%b9%e6%95%b0%e5%87%bd%e6%95%b0" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_112-%e6%8c%87%e6%95%b0%e5%87%bd%e6%95%b0%e4%b8%8e%e8%87%aa%e7%84%b6%e5%af%b9%e6%95%b0%e5%87%bd%e6%95%b0" xr:uid="{9E016303-AB9D-4119-A98A-A63F1944E26B}"/>
+    <hyperlink ref="C34" r:id="rId199" location="/./notebook_code/regression?id=_111-%e5%8f%8d%e5%87%bd%e6%95%b0%ef%bc%88inverse-function%ef%bc%89" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_111-%e5%8f%8d%e5%87%bd%e6%95%b0%ef%bc%88inverse-function%ef%bc%89" xr:uid="{DB4E53B6-305A-4161-A58D-8CAF6EAB199D}"/>
+    <hyperlink ref="B34" r:id="rId200" location="/./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/regression?id=_1-%e7%ae%80%e5%8d%95%e5%9b%9e%e5%bd%92%ef%bc%8c%e5%a4%9a%e5%85%83%e5%9b%9e%e5%bd%92" xr:uid="{A548E265-F0B9-4FDE-9D9D-80717EB35738}"/>
+    <hyperlink ref="B26:B33" r:id="rId201" location="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" display="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" xr:uid="{059350B9-F198-4E51-8A21-CEB204BB62C8}"/>
+    <hyperlink ref="C33" r:id="rId202" location="/./notebook_code/correlation?id=_132-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/correlation?id=_132-%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" xr:uid="{F380446D-B92D-4728-90CC-6C9F35DA0253}"/>
+    <hyperlink ref="B24" r:id="rId203" location="/./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" xr:uid="{ABBB0B91-64D2-4326-806F-A974C12E692E}"/>
+    <hyperlink ref="B25" r:id="rId204" location="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" display="/./notebook_code/correlation?id=_1-%e6%a0%87%e5%87%86%e8%af%af%ef%bc%8c%e4%b8%ad%e5%bf%83%e6%9e%81%e9%99%90%e5%ae%9a%e7%90%86%ef%bc%8ct%e5%88%86%e5%b8%83%ef%bc%8c%e7%bb%9f%e8%ae%a1%e6%98%be%e8%91%97%e6%80%a7%ef%bc%8c%e6%95%88%e5%ba%94%e9%87%8f%ef%bc%8c%e7%bd%ae%e4%bf%a1%e5%8c%ba%e9%97%b4%ef%bc%9b%e5%85%ac%e5%85%b1%e5%81%a5%e5%ba%b7%e6%95%b0%e6%8d%ae%e7%9a%84%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e5%88%86%e5%b8%83%e4%b8%8e%e7%9b%b8%e5%85%b3%e6%80%a7%e5%88%86%e6%9e%90" xr:uid="{C184DAE4-65B2-45FA-9825-E9FBD3C318D2}"/>
+    <hyperlink ref="B21:B23" r:id="rId205" location="/./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" xr:uid="{9B73574D-1EE7-417D-AD95-70F50B76F683}"/>
+    <hyperlink ref="B20" r:id="rId206" location="/./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/kde?id=_1-%e6%a0%b8%e5%af%86%e5%ba%a6%e4%bc%b0%e8%ae%a1%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%af%86%e5%ba%a6%e5%88%86%e5%b8%83" xr:uid="{A31AB420-DA75-41D0-9F10-BB9177A7EB30}"/>
+    <hyperlink ref="B18:B19" r:id="rId207" location="/./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{CE631BF0-E2E6-400F-8E74-114711143587}"/>
+    <hyperlink ref="B17" r:id="rId208" location="/./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/OSM_dataProcessing?id=_1openstreetmap%ef%bc%88osm%ef%bc%89%e6%95%b0%e6%8d%ae%e5%a4%84%e7%90%86" xr:uid="{3BDCBCA3-52F1-4352-A385-63635135EE40}"/>
+    <hyperlink ref="B12:B16" r:id="rId209" location="/./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" xr:uid="{56F2F583-9564-4743-B9B9-9A3FC637F137}"/>
+    <hyperlink ref="B11" r:id="rId210" location="/./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" display="https://richiebao.github.io/Urban-Spatial-Data-Analysis_python/ - /./notebook_code/normalDis_PDF_outliers?id=_1-%e6%ad%a3%e6%80%81%e5%88%86%e5%b8%83%e4%b8%8e%e6%a6%82%e7%8e%87%e5%af%86%e5%ba%a6%e5%87%bd%e6%95%b0%ef%bc%8c%e5%bc%82%e5%b8%b8%e5%80%bc%e5%a4%84%e7%90%86" xr:uid="{588D1973-8121-481E-9155-52D08B3FB1E6}"/>
+    <hyperlink ref="B9:B10" r:id="rId211" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" display="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" xr:uid="{CE94AAF2-F735-4E75-B365-BEB7B85C852A}"/>
+    <hyperlink ref="B4:B7" r:id="rId212" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" xr:uid="{D723813B-C4F4-4D94-B975-F26327C19A53}"/>
+    <hyperlink ref="B8" r:id="rId213" location="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" display="/./notebook_code/BaiduMapPOI_collection_multipleClassification?id=_1-%e5%a4%9a%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e6%8f%8f%e8%bf%b0%e6%80%a7%e7%bb%9f%e8%ae%a1" xr:uid="{75343980-5489-48DD-90EE-563179FA3EFB}"/>
+    <hyperlink ref="B3" r:id="rId214" location="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" display="/./notebook_code/BaiduMapPOI_collection_singleClassification?id=%e5%8d%95%e4%b8%aa%e5%88%86%e7%b1%bbpoi%e6%95%b0%e6%8d%ae%e7%88%ac%e5%8f%96%e4%b8%8e%e5%9c%b0%e7%90%86%e7%a9%ba%e9%97%b4%e7%82%b9%e5%9c%b0%e5%9b%be" xr:uid="{D7CCC41C-DBDF-43D0-9F99-95B67E134227}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8674,8 +9082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72BA609-314D-4F3E-A173-428A26E7A4D6}">
   <dimension ref="A1:S222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
@@ -8698,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8737,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>194</v>
@@ -8788,7 +9196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" ht="86" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8796,13 +9204,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" ht="86" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8810,13 +9218,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8824,13 +9232,13 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8838,13 +9246,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8852,7 +9260,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8861,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8869,13 +9277,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8883,13 +9291,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" ht="86" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8897,13 +9305,13 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" ht="86" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8911,13 +9319,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>4</v>
       </c>
@@ -8925,7 +9333,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -8934,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8942,7 +9350,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -8951,7 +9359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8959,7 +9367,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -8968,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>4</v>
       </c>
@@ -8976,13 +9384,13 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8990,13 +9398,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>5</v>
       </c>
@@ -9004,7 +9412,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -9013,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9021,7 +9429,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -9030,7 +9438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9038,13 +9446,13 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9052,125 +9460,125 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:17" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>8</v>
       </c>
@@ -9178,13 +9586,13 @@
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:17" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>8</v>
       </c>
@@ -9192,13 +9600,13 @@
         <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>8</v>
       </c>
@@ -9206,13 +9614,13 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:17" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>9</v>
       </c>
@@ -9220,13 +9628,13 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:18" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>9</v>
       </c>
@@ -9234,13 +9642,13 @@
         <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>9</v>
       </c>
@@ -9248,13 +9656,13 @@
         <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:18" ht="100.35" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>10</v>
       </c>
@@ -9262,13 +9670,13 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:18" ht="100.35" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>10</v>
       </c>
@@ -9276,7 +9684,7 @@
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -9285,7 +9693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:18" ht="100.35" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>10</v>
       </c>
@@ -9293,7 +9701,7 @@
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -9302,7 +9710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:18" ht="100.35" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>10</v>
       </c>
@@ -9310,13 +9718,13 @@
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:18" ht="100.35" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>10</v>
       </c>
@@ -9324,13 +9732,13 @@
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:18" ht="100.35" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>10</v>
       </c>
@@ -9338,7 +9746,7 @@
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9347,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:18" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>11</v>
       </c>
@@ -9355,7 +9763,7 @@
         <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -9364,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:18" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>11</v>
       </c>
@@ -9372,7 +9780,7 @@
         <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -9381,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:18" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>11</v>
       </c>
@@ -9389,13 +9797,13 @@
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:18" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>11</v>
       </c>
@@ -9403,13 +9811,13 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:18" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>11</v>
       </c>
@@ -9417,13 +9825,13 @@
         <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:18" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>11</v>
       </c>
@@ -9431,7 +9839,7 @@
         <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -9440,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:18" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>11</v>
       </c>
@@ -9448,7 +9856,7 @@
         <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -9463,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>12</v>
       </c>
@@ -9471,7 +9879,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -9483,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>12</v>
       </c>
@@ -9491,7 +9899,7 @@
         <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -9500,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>12</v>
       </c>
@@ -9508,7 +9916,7 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -9520,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>12</v>
       </c>
@@ -9528,7 +9936,7 @@
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -9537,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>12</v>
       </c>
@@ -9545,13 +9953,13 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>12</v>
       </c>
@@ -9559,7 +9967,7 @@
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -9568,7 +9976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>12</v>
       </c>
@@ -9576,7 +9984,7 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -9585,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>12</v>
       </c>
@@ -9593,7 +10001,7 @@
         <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -9602,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>12</v>
       </c>
@@ -9610,13 +10018,13 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:18" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>12</v>
       </c>
@@ -9624,7 +10032,7 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -9633,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:18" ht="129" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>13</v>
       </c>
@@ -9641,13 +10049,13 @@
         <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:18" ht="129" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>13</v>
       </c>
@@ -9655,13 +10063,13 @@
         <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:18" ht="129" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>13</v>
       </c>
@@ -9669,13 +10077,13 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:18" ht="129" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>13</v>
       </c>
@@ -9683,13 +10091,13 @@
         <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:18" ht="129" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>13</v>
       </c>
@@ -9697,13 +10105,13 @@
         <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:18" ht="129" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>13</v>
       </c>
@@ -9711,13 +10119,13 @@
         <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:18" ht="129" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>13</v>
       </c>
@@ -9725,13 +10133,13 @@
         <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>13</v>
       </c>
@@ -9739,13 +10147,13 @@
         <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>13</v>
       </c>
@@ -9753,13 +10161,13 @@
         <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>13</v>
       </c>
@@ -9767,13 +10175,13 @@
         <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>13</v>
       </c>
@@ -9781,13 +10189,13 @@
         <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>13</v>
       </c>
@@ -9795,7 +10203,7 @@
         <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -9804,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>13</v>
       </c>
@@ -9812,13 +10220,13 @@
         <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>13</v>
       </c>
@@ -9826,7 +10234,7 @@
         <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -9841,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>13</v>
       </c>
@@ -9849,7 +10257,7 @@
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -9858,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>13</v>
       </c>
@@ -9866,13 +10274,13 @@
         <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:19" ht="129" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>13</v>
       </c>
@@ -9880,13 +10288,13 @@
         <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:19" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>14</v>
       </c>
@@ -9894,13 +10302,13 @@
         <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>15</v>
       </c>
@@ -9908,13 +10316,13 @@
         <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>15</v>
       </c>
@@ -9922,13 +10330,13 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>15</v>
       </c>
@@ -9936,13 +10344,13 @@
         <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>15</v>
       </c>
@@ -9950,13 +10358,13 @@
         <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>15</v>
       </c>
@@ -9964,13 +10372,13 @@
         <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>15</v>
       </c>
@@ -9978,13 +10386,13 @@
         <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>15</v>
       </c>
@@ -9992,7 +10400,7 @@
         <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -10004,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>15</v>
       </c>
@@ -10012,7 +10420,7 @@
         <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -10021,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:19" ht="43" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>15</v>
       </c>
@@ -10029,13 +10437,13 @@
         <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>16</v>
       </c>
@@ -10043,13 +10451,13 @@
         <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>16</v>
       </c>
@@ -10057,7 +10465,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -10066,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>16</v>
       </c>
@@ -10074,13 +10482,13 @@
         <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>16</v>
       </c>
@@ -10088,13 +10496,13 @@
         <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>16</v>
       </c>
@@ -10102,13 +10510,13 @@
         <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>16</v>
       </c>
@@ -10116,13 +10524,13 @@
         <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>16</v>
       </c>
@@ -10130,7 +10538,7 @@
         <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -10142,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>16</v>
       </c>
@@ -10150,7 +10558,7 @@
         <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10159,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>16</v>
       </c>
@@ -10167,13 +10575,13 @@
         <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>16</v>
       </c>
@@ -10181,13 +10589,13 @@
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>16</v>
       </c>
@@ -10195,13 +10603,13 @@
         <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>16</v>
       </c>
@@ -10209,13 +10617,13 @@
         <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>16</v>
       </c>
@@ -10223,13 +10631,13 @@
         <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>16</v>
       </c>
@@ -10237,13 +10645,13 @@
         <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>16</v>
       </c>
@@ -10251,13 +10659,13 @@
         <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>17</v>
       </c>
@@ -10265,13 +10673,13 @@
         <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>17</v>
       </c>
@@ -10279,13 +10687,13 @@
         <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>17</v>
       </c>
@@ -10293,13 +10701,13 @@
         <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>17</v>
       </c>
@@ -10307,13 +10715,13 @@
         <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>17</v>
       </c>
@@ -10321,7 +10729,7 @@
         <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -10330,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>17</v>
       </c>
@@ -10338,13 +10746,13 @@
         <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>17</v>
       </c>
@@ -10352,7 +10760,7 @@
         <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -10361,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>17</v>
       </c>
@@ -10369,13 +10777,13 @@
         <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:19" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>17</v>
       </c>
@@ -10383,7 +10791,7 @@
         <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -10392,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>18</v>
       </c>
@@ -10400,13 +10808,13 @@
         <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>18</v>
       </c>
@@ -10414,13 +10822,13 @@
         <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>18</v>
       </c>
@@ -10428,13 +10836,13 @@
         <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:19" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>18</v>
       </c>
@@ -10442,13 +10850,13 @@
         <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:16" ht="200.7" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>18</v>
       </c>
@@ -10456,13 +10864,13 @@
         <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>19</v>
       </c>
@@ -10470,13 +10878,13 @@
         <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>19</v>
       </c>
@@ -10484,13 +10892,13 @@
         <v>159</v>
       </c>
       <c r="C115" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>19</v>
       </c>
@@ -10498,13 +10906,13 @@
         <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>19</v>
       </c>
@@ -10512,7 +10920,7 @@
         <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -10521,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>19</v>
       </c>
@@ -10529,13 +10937,13 @@
         <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>19</v>
       </c>
@@ -10543,13 +10951,13 @@
         <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>19</v>
       </c>
@@ -10557,13 +10965,13 @@
         <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>19</v>
       </c>
@@ -10571,13 +10979,13 @@
         <v>159</v>
       </c>
       <c r="C121" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>19</v>
       </c>
@@ -10585,13 +10993,13 @@
         <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>19</v>
       </c>
@@ -10599,13 +11007,13 @@
         <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>19</v>
       </c>
@@ -10613,13 +11021,13 @@
         <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>19</v>
       </c>
@@ -10627,13 +11035,13 @@
         <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>19</v>
       </c>
@@ -10641,7 +11049,7 @@
         <v>159</v>
       </c>
       <c r="C126" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -10650,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:16" ht="344" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>19</v>
       </c>
@@ -10658,385 +11066,385 @@
         <v>159</v>
       </c>
       <c r="C127" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:16" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>20</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C128" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>20</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>20</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C130" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>20</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C131" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>20</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C132" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>20</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C133" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>20</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C134" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:13" ht="243.7" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>20</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>21</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>21</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>21</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C139" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>21</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C140" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>21</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C141" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>21</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C142" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>21</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C143" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>21</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>21</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C145" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>21</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C146" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>21</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C147" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>21</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C148" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>21</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>21</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C150" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>21</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>21</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C152" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>21</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C153" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>21</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C154" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -11045,217 +11453,217 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>21</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C155" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>21</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C157" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>21</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C158" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>21</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C159" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C160" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>21</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C161" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>21</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C166" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C167" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:13" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C169" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:13" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>22</v>
       </c>
@@ -11263,13 +11671,13 @@
         <v>185</v>
       </c>
       <c r="C170" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:13" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>22</v>
       </c>
@@ -11277,13 +11685,13 @@
         <v>185</v>
       </c>
       <c r="C171" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:13" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>22</v>
       </c>
@@ -11291,13 +11699,13 @@
         <v>185</v>
       </c>
       <c r="C172" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:13" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>22</v>
       </c>
@@ -11305,13 +11713,13 @@
         <v>185</v>
       </c>
       <c r="C173" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:13" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>22</v>
       </c>
@@ -11319,13 +11727,13 @@
         <v>185</v>
       </c>
       <c r="C174" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:13" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>22</v>
       </c>
@@ -11333,13 +11741,13 @@
         <v>185</v>
       </c>
       <c r="C175" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:13" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>22</v>
       </c>
@@ -11347,13 +11755,13 @@
         <v>185</v>
       </c>
       <c r="C176" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>22</v>
       </c>
@@ -11361,13 +11769,13 @@
         <v>185</v>
       </c>
       <c r="C177" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>22</v>
       </c>
@@ -11375,13 +11783,13 @@
         <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>22</v>
       </c>
@@ -11389,13 +11797,13 @@
         <v>185</v>
       </c>
       <c r="C179" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>22</v>
       </c>
@@ -11403,13 +11811,13 @@
         <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>22</v>
       </c>
@@ -11417,13 +11825,13 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>22</v>
       </c>
@@ -11431,13 +11839,13 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>22</v>
       </c>
@@ -11445,13 +11853,13 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>22</v>
       </c>
@@ -11459,13 +11867,13 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>22</v>
       </c>
@@ -11473,13 +11881,13 @@
         <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>22</v>
       </c>
@@ -11487,13 +11895,13 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>22</v>
       </c>
@@ -11501,7 +11909,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -11510,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>22</v>
       </c>
@@ -11518,13 +11926,13 @@
         <v>185</v>
       </c>
       <c r="C188" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:15" ht="157.69999999999999" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>22</v>
       </c>
@@ -11532,21 +11940,21 @@
         <v>185</v>
       </c>
       <c r="C189" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:15" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>23</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C190" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -11555,57 +11963,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:15" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C191" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:15" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>23</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C192" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M192">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:18" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>23</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C193" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:18" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>23</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C194" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -11614,15 +12022,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:18" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>23</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C195" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -11631,15 +12039,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:18" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>23</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C196" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -11648,99 +12056,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:18" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>23</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C197" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:18" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>23</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C198" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:18" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>24</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C199" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:18" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>24</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C200" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:18" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>24</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C201" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M201">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:18" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>24</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C202" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>25</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -11749,29 +12157,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>25</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C204" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>25</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C205" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -11780,15 +12188,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>25</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C206" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -11797,43 +12205,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>25</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C207" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>25</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C208" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>25</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C209" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -11842,183 +12250,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>25</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C210" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>25</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C211" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M211">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>25</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C212" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>25</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C213" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>25</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C214" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>25</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M215">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>25</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C216" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>25</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C217" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M217">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>25</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C218" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>25</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C219" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J219">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>25</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C220" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K220">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>25</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C221" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J221">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:18" ht="372.7" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>25</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C222" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -12026,17 +12434,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD1048576 A1:C2 T1:XFD2">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:S2">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1 D1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
